--- a/rasa/data/AIYAIntentTemplate.xlsx
+++ b/rasa/data/AIYAIntentTemplate.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>ทักทาย</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>ชื่อของสมุนในไพรรูปคืออะไร</t>
+  </si>
+  <si>
+    <t>ส่งรูปภาพ</t>
   </si>
 </sst>
 </file>
@@ -591,12 +594,12 @@
   <dimension ref="A1:AV1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="26" style="5" customWidth="1"/>
     <col min="2" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="25.6640625" customWidth="1"/>
     <col min="6" max="6" width="30.83203125" customWidth="1"/>
@@ -646,14 +649,16 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7"/>
+      <c r="D1" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -663,8 +668,11 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+      <c r="D2" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -674,43 +682,65 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+      <c r="D4" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+      <c r="D6" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+      <c r="D7" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+      <c r="D8" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
+      <c r="D9" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A10"/>
+      <c r="D10" s="7"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>

--- a/rasa/data/AIYAIntentTemplate.xlsx
+++ b/rasa/data/AIYAIntentTemplate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="PTT" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
-  <si>
-    <t>ทักทาย</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
   <si>
     <t>ขอบคุณ</t>
   </si>
@@ -47,9 +44,6 @@
     <t>หวัดดี</t>
   </si>
   <si>
-    <t>ค้นหาสมุนไพรจากรูป</t>
-  </si>
-  <si>
     <t>รูปนี้คือไร</t>
   </si>
   <si>
@@ -92,12 +86,6 @@
     <t>สมุนไพรคืออะไร</t>
   </si>
   <si>
-    <t>หน้าที่ของบอท</t>
-  </si>
-  <si>
-    <t>เกี่ยวกับบอท</t>
-  </si>
-  <si>
     <t>ช่วยอธิบายความหมายของสมุนไพรหน่อย</t>
   </si>
   <si>
@@ -192,6 +180,63 @@
   </si>
   <si>
     <t>ไม่</t>
+  </si>
+  <si>
+    <t>สวัสดีครับผม</t>
+  </si>
+  <si>
+    <t>สวัสดีฮะ</t>
+  </si>
+  <si>
+    <t>ดีฮะ</t>
+  </si>
+  <si>
+    <t>ดี</t>
+  </si>
+  <si>
+    <t>หวาดดี</t>
+  </si>
+  <si>
+    <t>ไง</t>
+  </si>
+  <si>
+    <t>ขอบใจ</t>
+  </si>
+  <si>
+    <t>ขอบคุณหลาย</t>
+  </si>
+  <si>
+    <t>เคร</t>
+  </si>
+  <si>
+    <t>ชื่อไรเรา</t>
+  </si>
+  <si>
+    <t>เราชื่อไร</t>
+  </si>
+  <si>
+    <t>ชื่อไรฮะ</t>
+  </si>
+  <si>
+    <t>user.ทักทาย</t>
+  </si>
+  <si>
+    <t>user.ขอบคุณ</t>
+  </si>
+  <si>
+    <t>user.ส่งรูปภาพ</t>
+  </si>
+  <si>
+    <t>user.สมุนไพรคืออะไร</t>
+  </si>
+  <si>
+    <t>user.หน้าที่ของบอท</t>
+  </si>
+  <si>
+    <t>user.เกี่ยวกับบอท</t>
+  </si>
+  <si>
+    <t>user.ค้นหาสมุนไพรจากรูป</t>
   </si>
 </sst>
 </file>
@@ -711,7 +756,7 @@
   <dimension ref="A1:AW1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -758,250 +803,289 @@
   <sheetData>
     <row r="1" spans="1:49" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:49" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:49" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:49" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:49" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:49" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>61</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:49" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>62</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:49" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:49" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="I10"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:49" ht="13" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
       <c r="I11"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:49" ht="13" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
       <c r="I12"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
       <c r="I13"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
       <c r="I14"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:49" ht="13" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
       <c r="I15"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
@@ -1019,6 +1103,9 @@
       <c r="AW15" s="1"/>
     </row>
     <row r="16" spans="1:49" ht="13" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
       <c r="I16"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>

--- a/rasa/data/AIYAIntentTemplate.xlsx
+++ b/rasa/data/AIYAIntentTemplate.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="70">
   <si>
     <t>ขอบคุณ</t>
   </si>
@@ -756,7 +756,7 @@
   <dimension ref="A1:AW1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1111,6 +1111,9 @@
       <c r="M16" s="8"/>
     </row>
     <row r="17" spans="3:37" ht="13" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="F17" s="1"/>
       <c r="I17"/>
@@ -1118,12 +1121,17 @@
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="3:37" ht="13" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
       <c r="I18"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="3:37" ht="17" x14ac:dyDescent="0.2">
-      <c r="C19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1147,236 +1155,353 @@
       <c r="AI19" s="3"/>
     </row>
     <row r="20" spans="3:37" ht="13" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
       <c r="I20"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
     </row>
     <row r="21" spans="3:37" ht="13" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
       <c r="I21"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="3:37" ht="13" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
       <c r="I22"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
     </row>
     <row r="23" spans="3:37" ht="13" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
       <c r="I23"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
     </row>
     <row r="24" spans="3:37" ht="13" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
       <c r="I24"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
     </row>
     <row r="25" spans="3:37" ht="13" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
       <c r="I25"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
     </row>
     <row r="26" spans="3:37" ht="13" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
       <c r="I26"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="3:37" ht="13" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
       <c r="I27"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
     </row>
     <row r="28" spans="3:37" ht="13" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
       <c r="I28"/>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
     </row>
     <row r="29" spans="3:37" ht="13" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
       <c r="I29"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
       <c r="AK29" s="1"/>
     </row>
     <row r="30" spans="3:37" ht="13" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
       <c r="I30"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="3:37" ht="13" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
       <c r="I31"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
     </row>
     <row r="32" spans="3:37" ht="13" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32"/>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
     </row>
-    <row r="33" spans="9:41" ht="13" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:41" ht="13" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
       <c r="I33"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
     </row>
-    <row r="34" spans="9:41" ht="13" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:41" ht="13" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>56</v>
+      </c>
       <c r="I34"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
       <c r="AO34" s="2"/>
     </row>
-    <row r="35" spans="9:41" ht="13" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:41" ht="13" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
       <c r="I35"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="AO35" s="2"/>
     </row>
-    <row r="36" spans="9:41" ht="13" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:41" ht="13" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
       <c r="I36"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
       <c r="AO36" s="2"/>
     </row>
-    <row r="37" spans="9:41" ht="13" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:41" ht="17" x14ac:dyDescent="0.2">
+      <c r="C37" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="I37"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
       <c r="AO37" s="2"/>
     </row>
-    <row r="38" spans="9:41" ht="13" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:41" ht="13" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
       <c r="I38"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
       <c r="AO38" s="2"/>
     </row>
-    <row r="39" spans="9:41" ht="13" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:41" ht="13" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
       <c r="I39"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
       <c r="AO39" s="2"/>
     </row>
-    <row r="40" spans="9:41" ht="13" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:41" ht="13" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
       <c r="I40"/>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
       <c r="AO40" s="2"/>
     </row>
-    <row r="41" spans="9:41" ht="13" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:41" ht="13" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
       <c r="I41"/>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
       <c r="AO41" s="2"/>
     </row>
-    <row r="42" spans="9:41" ht="13" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:41" ht="13" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
       <c r="I42"/>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
     </row>
-    <row r="43" spans="9:41" ht="13" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:41" ht="13" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
       <c r="I43"/>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
     </row>
-    <row r="44" spans="9:41" ht="13" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:41" ht="13" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
       <c r="I44"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
     </row>
-    <row r="45" spans="9:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
       <c r="I45"/>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
     </row>
-    <row r="46" spans="9:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
       <c r="I46"/>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
     </row>
-    <row r="47" spans="9:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
       <c r="I47"/>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
     </row>
-    <row r="48" spans="9:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="3:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
       <c r="I48"/>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
     </row>
-    <row r="49" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
+        <v>30</v>
+      </c>
       <c r="I49"/>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
     </row>
-    <row r="50" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C50" t="s">
+        <v>31</v>
+      </c>
       <c r="I50"/>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
     </row>
-    <row r="51" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C51" t="s">
+        <v>51</v>
+      </c>
       <c r="I51"/>
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
     </row>
-    <row r="52" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C52" t="s">
+        <v>52</v>
+      </c>
       <c r="I52"/>
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
     </row>
-    <row r="53" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C53" t="s">
+        <v>53</v>
+      </c>
       <c r="I53"/>
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
     </row>
-    <row r="54" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C54" t="s">
+        <v>54</v>
+      </c>
       <c r="I54"/>
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
     </row>
-    <row r="55" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C55" t="s">
+        <v>55</v>
+      </c>
       <c r="I55"/>
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
     </row>
-    <row r="56" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
       <c r="I56"/>
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
     </row>
-    <row r="57" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C57" t="s">
+        <v>56</v>
+      </c>
       <c r="I57"/>
       <c r="L57" s="8"/>
       <c r="M57" s="8"/>
     </row>
-    <row r="58" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
       <c r="I58"/>
       <c r="L58" s="8"/>
       <c r="M58" s="8"/>
     </row>
-    <row r="59" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I59"/>
       <c r="L59" s="8"/>
       <c r="M59" s="8"/>
     </row>
-    <row r="60" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I60"/>
       <c r="L60" s="8"/>
       <c r="M60" s="8"/>
     </row>
-    <row r="61" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I61"/>
       <c r="L61" s="8"/>
       <c r="M61" s="8"/>
     </row>
-    <row r="62" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I62"/>
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
     </row>
-    <row r="63" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I63"/>
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
     </row>
-    <row r="64" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I64"/>
       <c r="L64" s="8"/>
       <c r="M64" s="8"/>

--- a/rasa/data/AIYAIntentTemplate.xlsx
+++ b/rasa/data/AIYAIntentTemplate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="PTT" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="70">
   <si>
     <t>ขอบคุณ</t>
   </si>
@@ -756,7 +756,7 @@
   <dimension ref="A1:AW1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -803,10 +803,10 @@
   <sheetData>
     <row r="1" spans="1:49" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>63</v>
@@ -1039,6 +1039,9 @@
       <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
       <c r="B10" t="s">
         <v>45</v>
       </c>
@@ -1051,6 +1054,12 @@
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:49" ht="13" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
       <c r="C11" t="s">
         <v>52</v>
       </c>
@@ -1059,6 +1068,12 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:49" ht="13" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
       <c r="C12" t="s">
         <v>53</v>
       </c>
@@ -1067,6 +1082,12 @@
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
       <c r="C13" t="s">
         <v>54</v>
       </c>
@@ -1075,6 +1096,12 @@
       <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
       <c r="C14" t="s">
         <v>55</v>
       </c>
@@ -1083,6 +1110,12 @@
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:49" ht="13" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -1103,6 +1136,12 @@
       <c r="AW15" s="1"/>
     </row>
     <row r="16" spans="1:49" ht="13" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
       <c r="C16" t="s">
         <v>56</v>
       </c>
@@ -1110,7 +1149,13 @@
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
     </row>
-    <row r="17" spans="3:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
@@ -1120,7 +1165,13 @@
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
     </row>
-    <row r="18" spans="3:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -1128,7 +1179,13 @@
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
     </row>
-    <row r="19" spans="3:37" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
       <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
@@ -1154,7 +1211,13 @@
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
     </row>
-    <row r="20" spans="3:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
@@ -1162,7 +1225,13 @@
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" spans="3:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -1170,7 +1239,13 @@
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
     </row>
-    <row r="22" spans="3:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -1178,7 +1253,13 @@
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
     </row>
-    <row r="23" spans="3:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
@@ -1186,7 +1267,13 @@
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
     </row>
-    <row r="24" spans="3:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -1194,7 +1281,13 @@
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
     </row>
-    <row r="25" spans="3:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -1202,7 +1295,13 @@
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
     </row>
-    <row r="26" spans="3:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
       <c r="C26" t="s">
         <v>30</v>
       </c>
@@ -1210,7 +1309,13 @@
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
     </row>
-    <row r="27" spans="3:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
       <c r="C27" t="s">
         <v>31</v>
       </c>
@@ -1218,7 +1323,13 @@
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
     </row>
-    <row r="28" spans="3:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
       <c r="C28" t="s">
         <v>51</v>
       </c>
@@ -1226,7 +1337,13 @@
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
     </row>
-    <row r="29" spans="3:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
       <c r="C29" t="s">
         <v>52</v>
       </c>
@@ -1235,7 +1352,13 @@
       <c r="M29" s="8"/>
       <c r="AK29" s="1"/>
     </row>
-    <row r="30" spans="3:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
       <c r="C30" t="s">
         <v>53</v>
       </c>
@@ -1243,7 +1366,13 @@
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
     </row>
-    <row r="31" spans="3:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
       <c r="C31" t="s">
         <v>54</v>
       </c>
@@ -1251,7 +1380,13 @@
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
     </row>
-    <row r="32" spans="3:37" ht="13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:37" ht="13" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
       <c r="C32" t="s">
         <v>55</v>
       </c>
@@ -1260,7 +1395,13 @@
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
     </row>
-    <row r="33" spans="3:41" ht="13" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:41" ht="13" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -1268,7 +1409,10 @@
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
     </row>
-    <row r="34" spans="3:41" ht="13" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:41" ht="13" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
       <c r="C34" t="s">
         <v>56</v>
       </c>
@@ -1277,7 +1421,10 @@
       <c r="M34" s="8"/>
       <c r="AO34" s="2"/>
     </row>
-    <row r="35" spans="3:41" ht="13" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:41" ht="13" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
@@ -1286,7 +1433,7 @@
       <c r="M35" s="8"/>
       <c r="AO35" s="2"/>
     </row>
-    <row r="36" spans="3:41" ht="13" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:41" ht="13" x14ac:dyDescent="0.15">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -1295,7 +1442,7 @@
       <c r="M36" s="8"/>
       <c r="AO36" s="2"/>
     </row>
-    <row r="37" spans="3:41" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:41" ht="17" x14ac:dyDescent="0.2">
       <c r="C37" s="3" t="s">
         <v>1</v>
       </c>
@@ -1304,7 +1451,7 @@
       <c r="M37" s="8"/>
       <c r="AO37" s="2"/>
     </row>
-    <row r="38" spans="3:41" ht="13" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:41" ht="13" x14ac:dyDescent="0.15">
       <c r="C38" t="s">
         <v>1</v>
       </c>
@@ -1313,7 +1460,7 @@
       <c r="M38" s="8"/>
       <c r="AO38" s="2"/>
     </row>
-    <row r="39" spans="3:41" ht="13" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:41" ht="13" x14ac:dyDescent="0.15">
       <c r="C39" t="s">
         <v>4</v>
       </c>
@@ -1322,7 +1469,7 @@
       <c r="M39" s="8"/>
       <c r="AO39" s="2"/>
     </row>
-    <row r="40" spans="3:41" ht="13" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:41" ht="13" x14ac:dyDescent="0.15">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -1331,7 +1478,7 @@
       <c r="M40" s="8"/>
       <c r="AO40" s="2"/>
     </row>
-    <row r="41" spans="3:41" ht="13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:41" ht="13" x14ac:dyDescent="0.15">
       <c r="C41" t="s">
         <v>1</v>
       </c>
@@ -1340,7 +1487,7 @@
       <c r="M41" s="8"/>
       <c r="AO41" s="2"/>
     </row>
-    <row r="42" spans="3:41" ht="13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:41" ht="13" x14ac:dyDescent="0.15">
       <c r="C42" t="s">
         <v>14</v>
       </c>
@@ -1348,7 +1495,7 @@
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
     </row>
-    <row r="43" spans="3:41" ht="13" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:41" ht="13" x14ac:dyDescent="0.15">
       <c r="C43" t="s">
         <v>1</v>
       </c>
@@ -1356,7 +1503,7 @@
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
     </row>
-    <row r="44" spans="3:41" ht="13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:41" ht="13" x14ac:dyDescent="0.15">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -1364,7 +1511,7 @@
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
     </row>
-    <row r="45" spans="3:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -1372,7 +1519,7 @@
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
     </row>
-    <row r="46" spans="3:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" t="s">
         <v>1</v>
       </c>
@@ -1380,7 +1527,7 @@
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
     </row>
-    <row r="47" spans="3:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" t="s">
         <v>14</v>
       </c>
@@ -1388,7 +1535,7 @@
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
     </row>
-    <row r="48" spans="3:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" t="s">
         <v>15</v>
       </c>

--- a/rasa/data/AIYAIntentTemplate.xlsx
+++ b/rasa/data/AIYAIntentTemplate.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="90">
   <si>
     <t>ขอบคุณ</t>
   </si>
@@ -249,6 +249,54 @@
   </si>
   <si>
     <t>ไม่พบสมุนไพร</t>
+  </si>
+  <si>
+    <t>ใช่ครับ</t>
+  </si>
+  <si>
+    <t>ใช่แล้วครับ</t>
+  </si>
+  <si>
+    <t>ใช่ค่ะ</t>
+  </si>
+  <si>
+    <t>ใช่คะ</t>
+  </si>
+  <si>
+    <t>ใช่แล้วค่ะ</t>
+  </si>
+  <si>
+    <t>ใช่เลย</t>
+  </si>
+  <si>
+    <t>ใช่เลยครับ</t>
+  </si>
+  <si>
+    <t>ใช่ครับผม</t>
+  </si>
+  <si>
+    <t>ใช่แล้วแหละ</t>
+  </si>
+  <si>
+    <t>ไม่ครับ</t>
+  </si>
+  <si>
+    <t>ไม่ค่ะ</t>
+  </si>
+  <si>
+    <t>ไม่คะ</t>
+  </si>
+  <si>
+    <t>ไม่ใช่ค่ะ</t>
+  </si>
+  <si>
+    <t>ไม่ใช่ครับ</t>
+  </si>
+  <si>
+    <t>ไม่ใช่เลยครับ</t>
+  </si>
+  <si>
+    <t>ไม่ใช่เลยค่ะ</t>
   </si>
 </sst>
 </file>
@@ -768,7 +816,7 @@
   <dimension ref="A1:AY1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1608,6 +1656,9 @@
       <c r="O33" s="8"/>
     </row>
     <row r="34" spans="3:43" ht="13" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
       <c r="D34" t="s">
         <v>46</v>
       </c>
@@ -1620,6 +1671,9 @@
       <c r="AQ34" s="2"/>
     </row>
     <row r="35" spans="3:43" ht="13" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
       <c r="D35" t="s">
         <v>47</v>
       </c>
@@ -1632,6 +1686,12 @@
       <c r="AQ35" s="2"/>
     </row>
     <row r="36" spans="3:43" ht="13" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
       <c r="E36" t="s">
         <v>3</v>
       </c>
@@ -1641,6 +1701,12 @@
       <c r="AQ36" s="2"/>
     </row>
     <row r="37" spans="3:43" ht="17" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" t="s">
+        <v>42</v>
+      </c>
       <c r="E37" s="3" t="s">
         <v>1</v>
       </c>
@@ -1650,6 +1716,12 @@
       <c r="AQ37" s="2"/>
     </row>
     <row r="38" spans="3:43" ht="13" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" t="s">
+        <v>43</v>
+      </c>
       <c r="E38" t="s">
         <v>1</v>
       </c>
@@ -1659,6 +1731,12 @@
       <c r="AQ38" s="2"/>
     </row>
     <row r="39" spans="3:43" ht="13" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" t="s">
+        <v>44</v>
+      </c>
       <c r="E39" t="s">
         <v>4</v>
       </c>
@@ -1668,6 +1746,12 @@
       <c r="AQ39" s="2"/>
     </row>
     <row r="40" spans="3:43" ht="13" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" t="s">
+        <v>45</v>
+      </c>
       <c r="E40" t="s">
         <v>3</v>
       </c>
@@ -1677,6 +1761,12 @@
       <c r="AQ40" s="2"/>
     </row>
     <row r="41" spans="3:43" ht="13" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" t="s">
+        <v>46</v>
+      </c>
       <c r="E41" t="s">
         <v>1</v>
       </c>
@@ -1686,6 +1776,12 @@
       <c r="AQ41" s="2"/>
     </row>
     <row r="42" spans="3:43" ht="13" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" t="s">
+        <v>47</v>
+      </c>
       <c r="E42" t="s">
         <v>14</v>
       </c>
@@ -1694,6 +1790,12 @@
       <c r="O42" s="8"/>
     </row>
     <row r="43" spans="3:43" ht="13" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" t="s">
+        <v>74</v>
+      </c>
       <c r="E43" t="s">
         <v>1</v>
       </c>
@@ -1702,6 +1804,12 @@
       <c r="O43" s="8"/>
     </row>
     <row r="44" spans="3:43" ht="13" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" t="s">
+        <v>75</v>
+      </c>
       <c r="E44" t="s">
         <v>4</v>
       </c>
@@ -1710,6 +1818,12 @@
       <c r="O44" s="8"/>
     </row>
     <row r="45" spans="3:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" t="s">
+        <v>76</v>
+      </c>
       <c r="E45" t="s">
         <v>3</v>
       </c>
@@ -1718,6 +1832,12 @@
       <c r="O45" s="8"/>
     </row>
     <row r="46" spans="3:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" t="s">
+        <v>77</v>
+      </c>
       <c r="E46" t="s">
         <v>1</v>
       </c>
@@ -1726,6 +1846,12 @@
       <c r="O46" s="8"/>
     </row>
     <row r="47" spans="3:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" t="s">
+        <v>78</v>
+      </c>
       <c r="E47" t="s">
         <v>14</v>
       </c>
@@ -1734,6 +1860,12 @@
       <c r="O47" s="8"/>
     </row>
     <row r="48" spans="3:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" t="s">
+        <v>79</v>
+      </c>
       <c r="E48" t="s">
         <v>15</v>
       </c>
@@ -1741,7 +1873,10 @@
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
     </row>
-    <row r="49" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D49" t="s">
+        <v>80</v>
+      </c>
       <c r="E49" t="s">
         <v>30</v>
       </c>
@@ -1749,7 +1884,10 @@
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
     </row>
-    <row r="50" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D50" t="s">
+        <v>81</v>
+      </c>
       <c r="E50" t="s">
         <v>31</v>
       </c>
@@ -1757,7 +1895,10 @@
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
     </row>
-    <row r="51" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D51" t="s">
+        <v>82</v>
+      </c>
       <c r="E51" t="s">
         <v>51</v>
       </c>
@@ -1765,7 +1906,7 @@
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
     </row>
-    <row r="52" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E52" t="s">
         <v>52</v>
       </c>
@@ -1773,7 +1914,7 @@
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
     </row>
-    <row r="53" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E53" t="s">
         <v>53</v>
       </c>
@@ -1781,7 +1922,7 @@
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
     </row>
-    <row r="54" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E54" t="s">
         <v>54</v>
       </c>
@@ -1789,7 +1930,7 @@
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
     </row>
-    <row r="55" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E55" t="s">
         <v>55</v>
       </c>
@@ -1797,7 +1938,7 @@
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
     </row>
-    <row r="56" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E56" t="s">
         <v>4</v>
       </c>
@@ -1805,7 +1946,7 @@
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
     </row>
-    <row r="57" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E57" t="s">
         <v>56</v>
       </c>
@@ -1813,7 +1954,7 @@
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
     </row>
-    <row r="58" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E58" t="s">
         <v>1</v>
       </c>
@@ -1821,32 +1962,32 @@
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
     </row>
-    <row r="59" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K59"/>
       <c r="N59" s="8"/>
       <c r="O59" s="8"/>
     </row>
-    <row r="60" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K60"/>
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
     </row>
-    <row r="61" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K61"/>
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
     </row>
-    <row r="62" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K62"/>
       <c r="N62" s="8"/>
       <c r="O62" s="8"/>
     </row>
-    <row r="63" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K63"/>
       <c r="N63" s="8"/>
       <c r="O63" s="8"/>
     </row>
-    <row r="64" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K64"/>
       <c r="N64" s="8"/>
       <c r="O64" s="8"/>

--- a/rasa/data/AIYAIntentTemplate.xlsx
+++ b/rasa/data/AIYAIntentTemplate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="PTT" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="104">
   <si>
     <t>ขอบคุณ</t>
   </si>
@@ -297,13 +297,55 @@
   </si>
   <si>
     <t>ไม่ใช่เลยค่ะ</t>
+  </si>
+  <si>
+    <t>user.ดูรูปสมุนไพร</t>
+  </si>
+  <si>
+    <t>user.สรรพคุณสมุนไพร</t>
+  </si>
+  <si>
+    <t>user.ดูข้อมูลทั่วไปของสมุนไพร</t>
+  </si>
+  <si>
+    <t>ขอดูรูปสมุนไพร</t>
+  </si>
+  <si>
+    <t>ดูรูปสมุนไพร</t>
+  </si>
+  <si>
+    <t>ค้นหาสรรพคุณของสมุนไพร</t>
+  </si>
+  <si>
+    <t>สรรพคุณสมุนไพร</t>
+  </si>
+  <si>
+    <t>ค้นหาข้อมูลทั่วไปของสมุนไพร</t>
+  </si>
+  <si>
+    <t>ดูข้อมูลทั่วไปของสมุนไพร</t>
+  </si>
+  <si>
+    <t>ข้อมูลทั้วไปของสมุนไพร</t>
+  </si>
+  <si>
+    <t>ต้องการหาสรรคุณของสมุนไพร</t>
+  </si>
+  <si>
+    <t>ค้นหาสมุนไพรจากรูป</t>
+  </si>
+  <si>
+    <t>หารูปสมุนไพร</t>
+  </si>
+  <si>
+    <t>ดูสรรพคุณของสมุนไพร</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -358,6 +400,13 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Menlo"/>
       <family val="2"/>
     </font>
@@ -452,7 +501,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -466,6 +515,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="71">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -813,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY1000"/>
+  <dimension ref="A1:AX1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -827,41 +877,40 @@
     <col min="9" max="9" width="30.83203125" customWidth="1"/>
     <col min="10" max="10" width="30.33203125" customWidth="1"/>
     <col min="11" max="11" width="26" style="5" customWidth="1"/>
-    <col min="12" max="12" width="47.5" customWidth="1"/>
-    <col min="13" max="13" width="45.83203125" customWidth="1"/>
-    <col min="14" max="14" width="34.83203125" customWidth="1"/>
-    <col min="15" max="15" width="29.5" customWidth="1"/>
-    <col min="16" max="16" width="35" customWidth="1"/>
-    <col min="17" max="17" width="45.1640625" customWidth="1"/>
-    <col min="18" max="18" width="65.6640625" customWidth="1"/>
-    <col min="19" max="19" width="74.83203125" customWidth="1"/>
-    <col min="20" max="20" width="51.5" customWidth="1"/>
-    <col min="21" max="21" width="27.6640625" customWidth="1"/>
-    <col min="22" max="22" width="25.83203125" customWidth="1"/>
-    <col min="23" max="23" width="23.33203125" customWidth="1"/>
-    <col min="24" max="24" width="21" customWidth="1"/>
-    <col min="25" max="25" width="30.5" customWidth="1"/>
-    <col min="26" max="26" width="34" customWidth="1"/>
-    <col min="27" max="27" width="31.1640625" customWidth="1"/>
-    <col min="28" max="28" width="35.5" customWidth="1"/>
-    <col min="29" max="29" width="33.5" customWidth="1"/>
-    <col min="30" max="30" width="34" customWidth="1"/>
-    <col min="31" max="31" width="48" customWidth="1"/>
-    <col min="32" max="32" width="41.83203125" customWidth="1"/>
-    <col min="33" max="33" width="38.1640625" customWidth="1"/>
-    <col min="34" max="34" width="31.5" customWidth="1"/>
-    <col min="35" max="35" width="33.83203125" customWidth="1"/>
-    <col min="36" max="36" width="27.5" customWidth="1"/>
-    <col min="37" max="37" width="41.33203125" customWidth="1"/>
-    <col min="38" max="38" width="23.5" customWidth="1"/>
-    <col min="39" max="39" width="26.5" customWidth="1"/>
-    <col min="40" max="40" width="35.5" customWidth="1"/>
-    <col min="41" max="41" width="18.83203125" customWidth="1"/>
-    <col min="42" max="42" width="17.5" customWidth="1"/>
-    <col min="43" max="43" width="19.33203125" customWidth="1"/>
+    <col min="12" max="12" width="45.83203125" customWidth="1"/>
+    <col min="13" max="13" width="34.83203125" customWidth="1"/>
+    <col min="14" max="14" width="29.5" customWidth="1"/>
+    <col min="15" max="15" width="35" customWidth="1"/>
+    <col min="16" max="16" width="45.1640625" customWidth="1"/>
+    <col min="17" max="17" width="65.6640625" customWidth="1"/>
+    <col min="18" max="18" width="74.83203125" customWidth="1"/>
+    <col min="19" max="19" width="51.5" customWidth="1"/>
+    <col min="20" max="20" width="27.6640625" customWidth="1"/>
+    <col min="21" max="21" width="25.83203125" customWidth="1"/>
+    <col min="22" max="22" width="23.33203125" customWidth="1"/>
+    <col min="23" max="23" width="21" customWidth="1"/>
+    <col min="24" max="24" width="30.5" customWidth="1"/>
+    <col min="25" max="25" width="34" customWidth="1"/>
+    <col min="26" max="26" width="31.1640625" customWidth="1"/>
+    <col min="27" max="27" width="35.5" customWidth="1"/>
+    <col min="28" max="28" width="33.5" customWidth="1"/>
+    <col min="29" max="29" width="34" customWidth="1"/>
+    <col min="30" max="30" width="48" customWidth="1"/>
+    <col min="31" max="31" width="41.83203125" customWidth="1"/>
+    <col min="32" max="32" width="38.1640625" customWidth="1"/>
+    <col min="33" max="33" width="31.5" customWidth="1"/>
+    <col min="34" max="34" width="33.83203125" customWidth="1"/>
+    <col min="35" max="35" width="27.5" customWidth="1"/>
+    <col min="36" max="36" width="41.33203125" customWidth="1"/>
+    <col min="37" max="37" width="23.5" customWidth="1"/>
+    <col min="38" max="38" width="26.5" customWidth="1"/>
+    <col min="39" max="39" width="35.5" customWidth="1"/>
+    <col min="40" max="40" width="18.83203125" customWidth="1"/>
+    <col min="41" max="41" width="17.5" customWidth="1"/>
+    <col min="42" max="42" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:50" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>71</v>
       </c>
@@ -895,9 +944,17 @@
       <c r="K1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:51" ht="16" x14ac:dyDescent="0.2">
+      <c r="L1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -931,8 +988,17 @@
       <c r="K2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:51" ht="16" x14ac:dyDescent="0.2">
+      <c r="L2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -966,8 +1032,17 @@
       <c r="K3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:51" ht="16" x14ac:dyDescent="0.2">
+      <c r="L3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M3" t="s">
+        <v>96</v>
+      </c>
+      <c r="N3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -1001,8 +1076,17 @@
       <c r="K4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:51" ht="16" x14ac:dyDescent="0.2">
+      <c r="L4" t="s">
+        <v>102</v>
+      </c>
+      <c r="M4" t="s">
+        <v>100</v>
+      </c>
+      <c r="N4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -1036,8 +1120,11 @@
       <c r="K5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:51" ht="17" x14ac:dyDescent="0.2">
+      <c r="M5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -1070,7 +1157,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:51" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -1099,7 +1186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:51" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -1125,7 +1212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:51" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -1150,9 +1237,9 @@
       <c r="K9" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="1:51" ht="16" x14ac:dyDescent="0.2">
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -1169,11 +1256,13 @@
         <v>51</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="K10"/>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" s="8"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-    </row>
-    <row r="11" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -1190,10 +1279,10 @@
         <v>52</v>
       </c>
       <c r="K11"/>
+      <c r="M11" s="8"/>
       <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-    </row>
-    <row r="12" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -1210,10 +1299,10 @@
         <v>53</v>
       </c>
       <c r="K12"/>
+      <c r="M12" s="8"/>
       <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-    </row>
-    <row r="13" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -1230,10 +1319,10 @@
         <v>54</v>
       </c>
       <c r="K13"/>
+      <c r="M13" s="8"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-    </row>
-    <row r="14" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -1250,10 +1339,10 @@
         <v>55</v>
       </c>
       <c r="K14"/>
+      <c r="M14" s="8"/>
       <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-    </row>
-    <row r="15" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -1270,11 +1359,12 @@
         <v>4</v>
       </c>
       <c r="K15"/>
+      <c r="M15" s="8"/>
       <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
+      <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
-      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
       <c r="AQ15" s="1"/>
       <c r="AR15" s="1"/>
       <c r="AS15" s="1"/>
@@ -1283,9 +1373,8 @@
       <c r="AV15" s="1"/>
       <c r="AW15" s="1"/>
       <c r="AX15" s="1"/>
-      <c r="AY15" s="1"/>
-    </row>
-    <row r="16" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>72</v>
       </c>
@@ -1302,10 +1391,10 @@
         <v>56</v>
       </c>
       <c r="K16"/>
+      <c r="M16" s="8"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-    </row>
-    <row r="17" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:38" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -1324,10 +1413,10 @@
       <c r="F17" s="1"/>
       <c r="H17" s="1"/>
       <c r="K17"/>
+      <c r="M17" s="8"/>
       <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-    </row>
-    <row r="18" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:38" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -1344,10 +1433,10 @@
         <v>3</v>
       </c>
       <c r="K18"/>
+      <c r="M18" s="8"/>
       <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-    </row>
-    <row r="19" spans="1:39" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:38" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -1368,8 +1457,9 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="K19" s="3"/>
+      <c r="M19" s="8"/>
       <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
+      <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
@@ -1383,9 +1473,8 @@
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3"/>
-      <c r="AK19" s="3"/>
-    </row>
-    <row r="20" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:38" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -1402,10 +1491,10 @@
         <v>1</v>
       </c>
       <c r="K20"/>
+      <c r="M20" s="8"/>
       <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-    </row>
-    <row r="21" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:38" ht="13" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>72</v>
       </c>
@@ -1422,10 +1511,10 @@
         <v>4</v>
       </c>
       <c r="K21"/>
+      <c r="M21" s="8"/>
       <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-    </row>
-    <row r="22" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:38" ht="13" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -1442,10 +1531,10 @@
         <v>3</v>
       </c>
       <c r="K22"/>
+      <c r="M22" s="8"/>
       <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-    </row>
-    <row r="23" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:38" ht="13" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>72</v>
       </c>
@@ -1462,10 +1551,10 @@
         <v>1</v>
       </c>
       <c r="K23"/>
+      <c r="M23" s="8"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-    </row>
-    <row r="24" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:38" ht="13" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -1482,10 +1571,10 @@
         <v>14</v>
       </c>
       <c r="K24"/>
+      <c r="M24" s="8"/>
       <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-    </row>
-    <row r="25" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:38" ht="13" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -1502,10 +1591,10 @@
         <v>15</v>
       </c>
       <c r="K25"/>
+      <c r="M25" s="8"/>
       <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-    </row>
-    <row r="26" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:38" ht="13" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -1522,10 +1611,10 @@
         <v>30</v>
       </c>
       <c r="K26"/>
+      <c r="M26" s="8"/>
       <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-    </row>
-    <row r="27" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:38" ht="13" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -1542,10 +1631,10 @@
         <v>31</v>
       </c>
       <c r="K27"/>
+      <c r="M27" s="8"/>
       <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-    </row>
-    <row r="28" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:38" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>72</v>
       </c>
@@ -1562,10 +1651,10 @@
         <v>51</v>
       </c>
       <c r="K28"/>
+      <c r="M28" s="8"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-    </row>
-    <row r="29" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:38" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>72</v>
       </c>
@@ -1582,11 +1671,11 @@
         <v>52</v>
       </c>
       <c r="K29"/>
+      <c r="M29" s="8"/>
       <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="AM29" s="1"/>
-    </row>
-    <row r="30" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+      <c r="AL29" s="1"/>
+    </row>
+    <row r="30" spans="1:38" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>72</v>
       </c>
@@ -1603,10 +1692,10 @@
         <v>53</v>
       </c>
       <c r="K30"/>
+      <c r="M30" s="8"/>
       <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-    </row>
-    <row r="31" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:38" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>72</v>
       </c>
@@ -1623,10 +1712,10 @@
         <v>54</v>
       </c>
       <c r="K31"/>
+      <c r="M31" s="8"/>
       <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-    </row>
-    <row r="32" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:38" ht="13" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
         <v>49</v>
       </c>
@@ -1638,10 +1727,10 @@
       </c>
       <c r="J32" s="1"/>
       <c r="K32"/>
+      <c r="M32" s="8"/>
       <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-    </row>
-    <row r="33" spans="3:43" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="3:42" ht="13" x14ac:dyDescent="0.15">
       <c r="C33" t="s">
         <v>50</v>
       </c>
@@ -1652,10 +1741,10 @@
         <v>4</v>
       </c>
       <c r="K33"/>
+      <c r="M33" s="8"/>
       <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-    </row>
-    <row r="34" spans="3:43" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="3:42" ht="13" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
         <v>36</v>
       </c>
@@ -1666,11 +1755,11 @@
         <v>56</v>
       </c>
       <c r="K34"/>
+      <c r="M34" s="8"/>
       <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="AQ34" s="2"/>
-    </row>
-    <row r="35" spans="3:43" ht="13" x14ac:dyDescent="0.15">
+      <c r="AP34" s="2"/>
+    </row>
+    <row r="35" spans="3:42" ht="13" x14ac:dyDescent="0.15">
       <c r="C35" t="s">
         <v>37</v>
       </c>
@@ -1681,11 +1770,11 @@
         <v>1</v>
       </c>
       <c r="K35"/>
+      <c r="M35" s="8"/>
       <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="AQ35" s="2"/>
-    </row>
-    <row r="36" spans="3:43" ht="13" x14ac:dyDescent="0.15">
+      <c r="AP35" s="2"/>
+    </row>
+    <row r="36" spans="3:42" ht="13" x14ac:dyDescent="0.15">
       <c r="C36" t="s">
         <v>38</v>
       </c>
@@ -1696,11 +1785,11 @@
         <v>3</v>
       </c>
       <c r="K36"/>
+      <c r="M36" s="8"/>
       <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="AQ36" s="2"/>
-    </row>
-    <row r="37" spans="3:43" ht="17" x14ac:dyDescent="0.2">
+      <c r="AP36" s="2"/>
+    </row>
+    <row r="37" spans="3:42" ht="17" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>39</v>
       </c>
@@ -1711,11 +1800,11 @@
         <v>1</v>
       </c>
       <c r="K37"/>
+      <c r="M37" s="8"/>
       <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="AQ37" s="2"/>
-    </row>
-    <row r="38" spans="3:43" ht="13" x14ac:dyDescent="0.15">
+      <c r="AP37" s="2"/>
+    </row>
+    <row r="38" spans="3:42" ht="13" x14ac:dyDescent="0.15">
       <c r="C38" t="s">
         <v>40</v>
       </c>
@@ -1726,11 +1815,11 @@
         <v>1</v>
       </c>
       <c r="K38"/>
+      <c r="M38" s="8"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="AQ38" s="2"/>
-    </row>
-    <row r="39" spans="3:43" ht="13" x14ac:dyDescent="0.15">
+      <c r="AP38" s="2"/>
+    </row>
+    <row r="39" spans="3:42" ht="13" x14ac:dyDescent="0.15">
       <c r="C39" t="s">
         <v>48</v>
       </c>
@@ -1741,11 +1830,11 @@
         <v>4</v>
       </c>
       <c r="K39"/>
+      <c r="M39" s="8"/>
       <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="AQ39" s="2"/>
-    </row>
-    <row r="40" spans="3:43" ht="13" x14ac:dyDescent="0.15">
+      <c r="AP39" s="2"/>
+    </row>
+    <row r="40" spans="3:42" ht="13" x14ac:dyDescent="0.15">
       <c r="C40" t="s">
         <v>49</v>
       </c>
@@ -1756,11 +1845,11 @@
         <v>3</v>
       </c>
       <c r="K40"/>
+      <c r="M40" s="8"/>
       <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="AQ40" s="2"/>
-    </row>
-    <row r="41" spans="3:43" ht="13" x14ac:dyDescent="0.15">
+      <c r="AP40" s="2"/>
+    </row>
+    <row r="41" spans="3:42" ht="13" x14ac:dyDescent="0.15">
       <c r="C41" t="s">
         <v>50</v>
       </c>
@@ -1771,11 +1860,11 @@
         <v>1</v>
       </c>
       <c r="K41"/>
+      <c r="M41" s="8"/>
       <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="AQ41" s="2"/>
-    </row>
-    <row r="42" spans="3:43" ht="13" x14ac:dyDescent="0.15">
+      <c r="AP41" s="2"/>
+    </row>
+    <row r="42" spans="3:42" ht="13" x14ac:dyDescent="0.15">
       <c r="C42" t="s">
         <v>83</v>
       </c>
@@ -1786,10 +1875,10 @@
         <v>14</v>
       </c>
       <c r="K42"/>
+      <c r="M42" s="8"/>
       <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-    </row>
-    <row r="43" spans="3:43" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="3:42" ht="13" x14ac:dyDescent="0.15">
       <c r="C43" t="s">
         <v>84</v>
       </c>
@@ -1800,10 +1889,10 @@
         <v>1</v>
       </c>
       <c r="K43"/>
+      <c r="M43" s="8"/>
       <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-    </row>
-    <row r="44" spans="3:43" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="3:42" ht="13" x14ac:dyDescent="0.15">
       <c r="C44" t="s">
         <v>85</v>
       </c>
@@ -1814,10 +1903,10 @@
         <v>4</v>
       </c>
       <c r="K44"/>
+      <c r="M44" s="8"/>
       <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-    </row>
-    <row r="45" spans="3:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="3:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" t="s">
         <v>86</v>
       </c>
@@ -1828,10 +1917,10 @@
         <v>3</v>
       </c>
       <c r="K45"/>
+      <c r="M45" s="8"/>
       <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-    </row>
-    <row r="46" spans="3:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="3:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" t="s">
         <v>87</v>
       </c>
@@ -1842,10 +1931,10 @@
         <v>1</v>
       </c>
       <c r="K46"/>
+      <c r="M46" s="8"/>
       <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-    </row>
-    <row r="47" spans="3:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="3:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" t="s">
         <v>88</v>
       </c>
@@ -1856,10 +1945,10 @@
         <v>14</v>
       </c>
       <c r="K47"/>
+      <c r="M47" s="8"/>
       <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-    </row>
-    <row r="48" spans="3:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="3:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" t="s">
         <v>89</v>
       </c>
@@ -1870,10 +1959,10 @@
         <v>15</v>
       </c>
       <c r="K48"/>
+      <c r="M48" s="8"/>
       <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-    </row>
-    <row r="49" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="4:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D49" t="s">
         <v>80</v>
       </c>
@@ -1881,10 +1970,10 @@
         <v>30</v>
       </c>
       <c r="K49"/>
+      <c r="M49" s="8"/>
       <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-    </row>
-    <row r="50" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="4:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D50" t="s">
         <v>81</v>
       </c>
@@ -1892,10 +1981,10 @@
         <v>31</v>
       </c>
       <c r="K50"/>
+      <c r="M50" s="8"/>
       <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-    </row>
-    <row r="51" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="4:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D51" t="s">
         <v>82</v>
       </c>
@@ -1903,2740 +1992,2740 @@
         <v>51</v>
       </c>
       <c r="K51"/>
+      <c r="M51" s="8"/>
       <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-    </row>
-    <row r="52" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="4:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E52" t="s">
         <v>52</v>
       </c>
       <c r="K52"/>
+      <c r="M52" s="8"/>
       <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-    </row>
-    <row r="53" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="4:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E53" t="s">
         <v>53</v>
       </c>
       <c r="K53"/>
+      <c r="M53" s="8"/>
       <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-    </row>
-    <row r="54" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="4:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E54" t="s">
         <v>54</v>
       </c>
       <c r="K54"/>
+      <c r="M54" s="8"/>
       <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-    </row>
-    <row r="55" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="4:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E55" t="s">
         <v>55</v>
       </c>
       <c r="K55"/>
+      <c r="M55" s="8"/>
       <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-    </row>
-    <row r="56" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="4:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E56" t="s">
         <v>4</v>
       </c>
       <c r="K56"/>
+      <c r="M56" s="8"/>
       <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-    </row>
-    <row r="57" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="4:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E57" t="s">
         <v>56</v>
       </c>
       <c r="K57"/>
+      <c r="M57" s="8"/>
       <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-    </row>
-    <row r="58" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="4:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E58" t="s">
         <v>1</v>
       </c>
       <c r="K58"/>
+      <c r="M58" s="8"/>
       <c r="N58" s="8"/>
-      <c r="O58" s="8"/>
-    </row>
-    <row r="59" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="4:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K59"/>
+      <c r="M59" s="8"/>
       <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
-    </row>
-    <row r="60" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="4:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K60"/>
+      <c r="M60" s="8"/>
       <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
-    </row>
-    <row r="61" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="4:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K61"/>
+      <c r="M61" s="8"/>
       <c r="N61" s="8"/>
-      <c r="O61" s="8"/>
-    </row>
-    <row r="62" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="4:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K62"/>
+      <c r="M62" s="8"/>
       <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
-    </row>
-    <row r="63" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="4:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K63"/>
+      <c r="M63" s="8"/>
       <c r="N63" s="8"/>
-      <c r="O63" s="8"/>
-    </row>
-    <row r="64" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="4:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K64"/>
+      <c r="M64" s="8"/>
       <c r="N64" s="8"/>
-      <c r="O64" s="8"/>
-    </row>
-    <row r="65" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K65"/>
+      <c r="M65" s="8"/>
       <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
-    </row>
-    <row r="66" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K66"/>
+      <c r="M66" s="8"/>
       <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
-    </row>
-    <row r="67" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K67"/>
+      <c r="M67" s="8"/>
       <c r="N67" s="8"/>
-      <c r="O67" s="8"/>
-    </row>
-    <row r="68" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K68"/>
+      <c r="M68" s="8"/>
       <c r="N68" s="8"/>
-      <c r="O68" s="8"/>
-    </row>
-    <row r="69" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K69"/>
+      <c r="M69" s="8"/>
       <c r="N69" s="8"/>
-      <c r="O69" s="8"/>
-    </row>
-    <row r="70" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K70"/>
+      <c r="M70" s="8"/>
       <c r="N70" s="8"/>
-      <c r="O70" s="8"/>
-    </row>
-    <row r="71" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K71"/>
+      <c r="M71" s="8"/>
       <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
-    </row>
-    <row r="72" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="72" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K72"/>
+      <c r="M72" s="8"/>
       <c r="N72" s="8"/>
-      <c r="O72" s="8"/>
-    </row>
-    <row r="73" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="73" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K73"/>
+      <c r="M73" s="8"/>
       <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
-    </row>
-    <row r="74" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K74"/>
+      <c r="M74" s="8"/>
       <c r="N74" s="8"/>
-      <c r="O74" s="8"/>
-    </row>
-    <row r="75" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="75" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K75"/>
+      <c r="M75" s="8"/>
       <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
-    </row>
-    <row r="76" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="76" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K76"/>
+      <c r="M76" s="8"/>
       <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
-    </row>
-    <row r="77" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="77" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K77"/>
+      <c r="M77" s="8"/>
       <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
-    </row>
-    <row r="78" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="78" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K78"/>
+      <c r="M78" s="8"/>
       <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
-    </row>
-    <row r="79" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="79" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K79"/>
+      <c r="M79" s="8"/>
       <c r="N79" s="8"/>
-      <c r="O79" s="8"/>
-    </row>
-    <row r="80" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="80" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K80"/>
+      <c r="M80" s="8"/>
       <c r="N80" s="8"/>
-      <c r="O80" s="8"/>
-    </row>
-    <row r="81" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="81" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K81"/>
+      <c r="M81" s="8"/>
       <c r="N81" s="8"/>
-      <c r="O81" s="8"/>
-    </row>
-    <row r="82" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="82" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K82"/>
+      <c r="M82" s="8"/>
       <c r="N82" s="8"/>
-      <c r="O82" s="8"/>
-    </row>
-    <row r="83" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="83" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K83"/>
+      <c r="M83" s="8"/>
       <c r="N83" s="8"/>
-      <c r="O83" s="8"/>
-    </row>
-    <row r="84" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="84" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K84"/>
+      <c r="M84" s="8"/>
       <c r="N84" s="8"/>
-      <c r="O84" s="8"/>
-    </row>
-    <row r="85" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="85" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K85"/>
+      <c r="M85" s="8"/>
       <c r="N85" s="8"/>
-      <c r="O85" s="8"/>
-    </row>
-    <row r="86" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="86" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K86"/>
+      <c r="M86" s="8"/>
       <c r="N86" s="8"/>
-      <c r="O86" s="8"/>
-    </row>
-    <row r="87" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="87" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K87"/>
+      <c r="M87" s="8"/>
       <c r="N87" s="8"/>
-      <c r="O87" s="8"/>
-    </row>
-    <row r="88" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="88" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K88"/>
+      <c r="M88" s="8"/>
       <c r="N88" s="8"/>
-      <c r="O88" s="8"/>
-    </row>
-    <row r="89" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="89" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K89"/>
+      <c r="M89" s="8"/>
       <c r="N89" s="8"/>
-      <c r="O89" s="8"/>
-    </row>
-    <row r="90" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="90" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K90"/>
+      <c r="M90" s="8"/>
       <c r="N90" s="8"/>
-      <c r="O90" s="8"/>
-    </row>
-    <row r="91" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="91" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K91"/>
+      <c r="M91" s="8"/>
       <c r="N91" s="8"/>
-      <c r="O91" s="8"/>
-    </row>
-    <row r="92" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="92" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K92"/>
+      <c r="M92" s="8"/>
       <c r="N92" s="8"/>
-      <c r="O92" s="8"/>
-    </row>
-    <row r="93" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="93" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K93"/>
+      <c r="M93" s="8"/>
       <c r="N93" s="8"/>
-      <c r="O93" s="8"/>
-    </row>
-    <row r="94" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="94" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K94"/>
+      <c r="M94" s="8"/>
       <c r="N94" s="8"/>
-      <c r="O94" s="8"/>
-    </row>
-    <row r="95" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="95" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K95"/>
+      <c r="M95" s="8"/>
       <c r="N95" s="8"/>
-      <c r="O95" s="8"/>
-    </row>
-    <row r="96" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="96" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K96"/>
+      <c r="M96" s="8"/>
       <c r="N96" s="8"/>
-      <c r="O96" s="8"/>
-    </row>
-    <row r="97" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="97" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K97"/>
+      <c r="M97" s="8"/>
       <c r="N97" s="8"/>
-      <c r="O97" s="8"/>
-    </row>
-    <row r="98" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="98" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K98"/>
+      <c r="M98" s="8"/>
       <c r="N98" s="8"/>
-      <c r="O98" s="8"/>
-    </row>
-    <row r="99" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="99" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K99"/>
+      <c r="M99" s="8"/>
       <c r="N99" s="8"/>
-      <c r="O99" s="8"/>
-    </row>
-    <row r="100" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="100" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K100"/>
+      <c r="M100" s="8"/>
       <c r="N100" s="8"/>
-      <c r="O100" s="8"/>
-    </row>
-    <row r="101" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="101" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K101"/>
+      <c r="M101" s="8"/>
       <c r="N101" s="8"/>
-      <c r="O101" s="8"/>
-    </row>
-    <row r="102" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="102" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K102"/>
+      <c r="M102" s="8"/>
       <c r="N102" s="8"/>
-      <c r="O102" s="8"/>
-    </row>
-    <row r="103" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="103" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K103"/>
+      <c r="M103" s="8"/>
       <c r="N103" s="8"/>
-      <c r="O103" s="8"/>
-    </row>
-    <row r="104" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="104" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K104"/>
+      <c r="M104" s="8"/>
       <c r="N104" s="8"/>
-      <c r="O104" s="8"/>
-    </row>
-    <row r="105" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="105" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K105"/>
+      <c r="M105" s="8"/>
       <c r="N105" s="8"/>
-      <c r="O105" s="8"/>
-    </row>
-    <row r="106" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="106" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K106"/>
+      <c r="M106" s="8"/>
       <c r="N106" s="8"/>
-      <c r="O106" s="8"/>
-    </row>
-    <row r="107" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="107" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K107"/>
+      <c r="M107" s="8"/>
       <c r="N107" s="8"/>
-      <c r="O107" s="8"/>
-    </row>
-    <row r="108" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="108" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K108"/>
+      <c r="M108" s="8"/>
       <c r="N108" s="8"/>
-      <c r="O108" s="8"/>
-    </row>
-    <row r="109" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="109" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K109"/>
+      <c r="M109" s="8"/>
       <c r="N109" s="8"/>
-      <c r="O109" s="8"/>
-    </row>
-    <row r="110" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="110" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K110"/>
+      <c r="M110" s="8"/>
       <c r="N110" s="8"/>
-      <c r="O110" s="8"/>
-    </row>
-    <row r="111" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="111" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K111"/>
+      <c r="M111" s="8"/>
       <c r="N111" s="8"/>
-      <c r="O111" s="8"/>
-    </row>
-    <row r="112" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="112" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K112"/>
+      <c r="M112" s="8"/>
       <c r="N112" s="8"/>
-      <c r="O112" s="8"/>
-    </row>
-    <row r="113" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="113" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K113"/>
+      <c r="M113" s="8"/>
       <c r="N113" s="8"/>
-      <c r="O113" s="8"/>
-    </row>
-    <row r="114" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="114" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K114"/>
+      <c r="M114" s="8"/>
       <c r="N114" s="8"/>
-      <c r="O114" s="8"/>
-    </row>
-    <row r="115" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="115" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K115"/>
+      <c r="M115" s="8"/>
       <c r="N115" s="8"/>
-      <c r="O115" s="8"/>
-    </row>
-    <row r="116" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="116" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K116"/>
+      <c r="M116" s="8"/>
       <c r="N116" s="8"/>
-      <c r="O116" s="8"/>
-    </row>
-    <row r="117" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="117" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K117"/>
+      <c r="M117" s="8"/>
       <c r="N117" s="8"/>
-      <c r="O117" s="8"/>
-    </row>
-    <row r="118" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="118" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K118"/>
+      <c r="M118" s="8"/>
       <c r="N118" s="8"/>
-      <c r="O118" s="8"/>
-    </row>
-    <row r="119" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="119" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K119"/>
+      <c r="M119" s="8"/>
       <c r="N119" s="8"/>
-      <c r="O119" s="8"/>
-    </row>
-    <row r="120" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="120" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K120"/>
+      <c r="M120" s="8"/>
       <c r="N120" s="8"/>
-      <c r="O120" s="8"/>
-    </row>
-    <row r="121" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="121" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K121"/>
+      <c r="M121" s="8"/>
       <c r="N121" s="8"/>
-      <c r="O121" s="8"/>
-    </row>
-    <row r="122" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="122" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K122"/>
+      <c r="M122" s="8"/>
       <c r="N122" s="8"/>
-      <c r="O122" s="8"/>
-    </row>
-    <row r="123" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="123" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K123"/>
+      <c r="M123" s="8"/>
       <c r="N123" s="8"/>
-      <c r="O123" s="8"/>
-    </row>
-    <row r="124" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="124" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K124"/>
+      <c r="M124" s="8"/>
       <c r="N124" s="8"/>
-      <c r="O124" s="8"/>
-    </row>
-    <row r="125" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="125" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K125"/>
+      <c r="M125" s="8"/>
       <c r="N125" s="8"/>
-      <c r="O125" s="8"/>
-    </row>
-    <row r="126" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="126" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K126"/>
+      <c r="M126" s="8"/>
       <c r="N126" s="8"/>
-      <c r="O126" s="8"/>
-    </row>
-    <row r="127" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="127" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K127"/>
+      <c r="M127" s="8"/>
       <c r="N127" s="8"/>
-      <c r="O127" s="8"/>
-    </row>
-    <row r="128" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="128" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K128"/>
+      <c r="M128" s="8"/>
       <c r="N128" s="8"/>
-      <c r="O128" s="8"/>
-    </row>
-    <row r="129" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="129" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K129"/>
+      <c r="M129" s="8"/>
       <c r="N129" s="8"/>
-      <c r="O129" s="8"/>
-    </row>
-    <row r="130" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="130" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K130"/>
+      <c r="M130" s="8"/>
       <c r="N130" s="8"/>
-      <c r="O130" s="8"/>
-    </row>
-    <row r="131" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="131" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K131"/>
+      <c r="M131" s="8"/>
       <c r="N131" s="8"/>
-      <c r="O131" s="8"/>
-    </row>
-    <row r="132" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="132" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K132"/>
+      <c r="M132" s="8"/>
       <c r="N132" s="8"/>
-      <c r="O132" s="8"/>
-    </row>
-    <row r="133" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="133" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K133"/>
+      <c r="M133" s="8"/>
       <c r="N133" s="8"/>
-      <c r="O133" s="8"/>
-    </row>
-    <row r="134" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="134" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K134"/>
+      <c r="M134" s="8"/>
       <c r="N134" s="8"/>
-      <c r="O134" s="8"/>
-    </row>
-    <row r="135" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="135" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K135"/>
+      <c r="M135" s="8"/>
       <c r="N135" s="8"/>
-      <c r="O135" s="8"/>
-    </row>
-    <row r="136" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="136" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K136"/>
+      <c r="M136" s="8"/>
       <c r="N136" s="8"/>
-      <c r="O136" s="8"/>
-    </row>
-    <row r="137" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="137" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K137"/>
+      <c r="M137" s="8"/>
       <c r="N137" s="8"/>
-      <c r="O137" s="8"/>
-    </row>
-    <row r="138" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="138" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K138"/>
+      <c r="M138" s="8"/>
       <c r="N138" s="8"/>
-      <c r="O138" s="8"/>
-    </row>
-    <row r="139" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="139" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K139"/>
+      <c r="M139" s="8"/>
       <c r="N139" s="8"/>
-      <c r="O139" s="8"/>
-    </row>
-    <row r="140" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="140" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K140"/>
+      <c r="M140" s="8"/>
       <c r="N140" s="8"/>
-      <c r="O140" s="8"/>
-    </row>
-    <row r="141" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="141" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K141"/>
+      <c r="M141" s="8"/>
       <c r="N141" s="8"/>
-      <c r="O141" s="8"/>
-    </row>
-    <row r="142" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="142" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K142"/>
+      <c r="M142" s="8"/>
       <c r="N142" s="8"/>
-      <c r="O142" s="8"/>
-    </row>
-    <row r="143" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="143" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K143"/>
+      <c r="M143" s="8"/>
       <c r="N143" s="8"/>
-      <c r="O143" s="8"/>
-    </row>
-    <row r="144" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="144" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K144"/>
+      <c r="M144" s="8"/>
       <c r="N144" s="8"/>
-      <c r="O144" s="8"/>
-    </row>
-    <row r="145" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="145" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K145"/>
+      <c r="M145" s="8"/>
       <c r="N145" s="8"/>
-      <c r="O145" s="8"/>
-    </row>
-    <row r="146" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="146" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K146"/>
+      <c r="M146" s="8"/>
       <c r="N146" s="8"/>
-      <c r="O146" s="8"/>
-    </row>
-    <row r="147" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="147" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K147"/>
+      <c r="M147" s="8"/>
       <c r="N147" s="8"/>
-      <c r="O147" s="8"/>
-    </row>
-    <row r="148" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="148" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K148"/>
+      <c r="M148" s="8"/>
       <c r="N148" s="8"/>
-      <c r="O148" s="8"/>
-    </row>
-    <row r="149" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="149" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K149"/>
+      <c r="M149" s="8"/>
       <c r="N149" s="8"/>
-      <c r="O149" s="8"/>
-    </row>
-    <row r="150" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="150" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K150"/>
+      <c r="M150" s="8"/>
       <c r="N150" s="8"/>
-      <c r="O150" s="8"/>
-    </row>
-    <row r="151" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="151" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K151"/>
+      <c r="M151" s="8"/>
       <c r="N151" s="8"/>
-      <c r="O151" s="8"/>
-    </row>
-    <row r="152" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="152" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K152"/>
+      <c r="M152" s="8"/>
       <c r="N152" s="8"/>
-      <c r="O152" s="8"/>
-    </row>
-    <row r="153" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="153" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K153"/>
+      <c r="M153" s="8"/>
       <c r="N153" s="8"/>
-      <c r="O153" s="8"/>
-    </row>
-    <row r="154" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="154" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K154"/>
+      <c r="M154" s="8"/>
       <c r="N154" s="8"/>
-      <c r="O154" s="8"/>
-    </row>
-    <row r="155" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="155" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K155"/>
+      <c r="M155" s="8"/>
       <c r="N155" s="8"/>
-      <c r="O155" s="8"/>
-    </row>
-    <row r="156" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="156" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K156"/>
+      <c r="M156" s="8"/>
       <c r="N156" s="8"/>
-      <c r="O156" s="8"/>
-    </row>
-    <row r="157" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="157" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K157"/>
+      <c r="M157" s="8"/>
       <c r="N157" s="8"/>
-      <c r="O157" s="8"/>
-    </row>
-    <row r="158" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="158" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K158"/>
+      <c r="M158" s="8"/>
       <c r="N158" s="8"/>
-      <c r="O158" s="8"/>
-    </row>
-    <row r="159" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="159" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K159"/>
+      <c r="M159" s="8"/>
       <c r="N159" s="8"/>
-      <c r="O159" s="8"/>
-    </row>
-    <row r="160" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="160" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K160"/>
+      <c r="M160" s="8"/>
       <c r="N160" s="8"/>
-      <c r="O160" s="8"/>
-    </row>
-    <row r="161" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="161" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K161"/>
+      <c r="M161" s="8"/>
       <c r="N161" s="8"/>
-      <c r="O161" s="8"/>
-    </row>
-    <row r="162" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="162" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K162"/>
+      <c r="M162" s="8"/>
       <c r="N162" s="8"/>
-      <c r="O162" s="8"/>
-    </row>
-    <row r="163" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="163" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K163"/>
+      <c r="M163" s="8"/>
       <c r="N163" s="8"/>
-      <c r="O163" s="8"/>
-    </row>
-    <row r="164" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="164" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K164"/>
+      <c r="M164" s="8"/>
       <c r="N164" s="8"/>
-      <c r="O164" s="8"/>
-    </row>
-    <row r="165" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="165" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K165"/>
+      <c r="M165" s="8"/>
       <c r="N165" s="8"/>
-      <c r="O165" s="8"/>
-    </row>
-    <row r="166" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="166" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K166"/>
+      <c r="M166" s="8"/>
       <c r="N166" s="8"/>
-      <c r="O166" s="8"/>
-    </row>
-    <row r="167" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="167" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K167"/>
+      <c r="M167" s="8"/>
       <c r="N167" s="8"/>
-      <c r="O167" s="8"/>
-    </row>
-    <row r="168" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="168" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K168"/>
+      <c r="M168" s="8"/>
       <c r="N168" s="8"/>
-      <c r="O168" s="8"/>
-    </row>
-    <row r="169" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="169" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K169"/>
+      <c r="M169" s="8"/>
       <c r="N169" s="8"/>
-      <c r="O169" s="8"/>
-    </row>
-    <row r="170" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="170" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K170"/>
+      <c r="M170" s="8"/>
       <c r="N170" s="8"/>
-      <c r="O170" s="8"/>
-    </row>
-    <row r="171" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="171" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K171"/>
+      <c r="M171" s="8"/>
       <c r="N171" s="8"/>
-      <c r="O171" s="8"/>
-    </row>
-    <row r="172" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="172" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K172"/>
+      <c r="M172" s="8"/>
       <c r="N172" s="8"/>
-      <c r="O172" s="8"/>
-    </row>
-    <row r="173" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="173" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K173"/>
+      <c r="M173" s="8"/>
       <c r="N173" s="8"/>
-      <c r="O173" s="8"/>
-    </row>
-    <row r="174" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="174" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K174"/>
+      <c r="M174" s="8"/>
       <c r="N174" s="8"/>
-      <c r="O174" s="8"/>
-    </row>
-    <row r="175" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="175" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K175"/>
+      <c r="M175" s="8"/>
       <c r="N175" s="8"/>
-      <c r="O175" s="8"/>
-    </row>
-    <row r="176" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="176" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K176"/>
+      <c r="M176" s="8"/>
       <c r="N176" s="8"/>
-      <c r="O176" s="8"/>
-    </row>
-    <row r="177" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="177" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K177"/>
+      <c r="M177" s="8"/>
       <c r="N177" s="8"/>
-      <c r="O177" s="8"/>
-    </row>
-    <row r="178" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="178" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K178"/>
+      <c r="M178" s="8"/>
       <c r="N178" s="8"/>
-      <c r="O178" s="8"/>
-    </row>
-    <row r="179" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="179" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K179"/>
+      <c r="M179" s="8"/>
       <c r="N179" s="8"/>
-      <c r="O179" s="8"/>
-    </row>
-    <row r="180" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="180" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K180"/>
+      <c r="M180" s="8"/>
       <c r="N180" s="8"/>
-      <c r="O180" s="8"/>
-    </row>
-    <row r="181" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="181" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K181"/>
+      <c r="M181" s="8"/>
       <c r="N181" s="8"/>
-      <c r="O181" s="8"/>
-    </row>
-    <row r="182" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="182" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K182"/>
+      <c r="M182" s="8"/>
       <c r="N182" s="8"/>
-      <c r="O182" s="8"/>
-    </row>
-    <row r="183" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="183" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K183"/>
+      <c r="M183" s="8"/>
       <c r="N183" s="8"/>
-      <c r="O183" s="8"/>
-    </row>
-    <row r="184" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="184" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K184"/>
+      <c r="M184" s="8"/>
       <c r="N184" s="8"/>
-      <c r="O184" s="8"/>
-    </row>
-    <row r="185" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="185" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K185"/>
+      <c r="M185" s="8"/>
       <c r="N185" s="8"/>
-      <c r="O185" s="8"/>
-    </row>
-    <row r="186" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="186" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K186"/>
+      <c r="M186" s="8"/>
       <c r="N186" s="8"/>
-      <c r="O186" s="8"/>
-    </row>
-    <row r="187" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="187" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K187"/>
+      <c r="M187" s="8"/>
       <c r="N187" s="8"/>
-      <c r="O187" s="8"/>
-    </row>
-    <row r="188" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="188" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K188"/>
+      <c r="M188" s="8"/>
       <c r="N188" s="8"/>
-      <c r="O188" s="8"/>
-    </row>
-    <row r="189" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="189" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K189"/>
+      <c r="M189" s="8"/>
       <c r="N189" s="8"/>
-      <c r="O189" s="8"/>
-    </row>
-    <row r="190" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="190" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K190"/>
+      <c r="M190" s="8"/>
       <c r="N190" s="8"/>
-      <c r="O190" s="8"/>
-    </row>
-    <row r="191" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="191" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K191"/>
+      <c r="M191" s="8"/>
       <c r="N191" s="8"/>
-      <c r="O191" s="8"/>
-    </row>
-    <row r="192" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="192" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K192"/>
+      <c r="M192" s="8"/>
       <c r="N192" s="8"/>
-      <c r="O192" s="8"/>
-    </row>
-    <row r="193" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="193" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K193"/>
+      <c r="M193" s="8"/>
       <c r="N193" s="8"/>
-      <c r="O193" s="8"/>
-    </row>
-    <row r="194" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="194" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K194"/>
+      <c r="M194" s="8"/>
       <c r="N194" s="8"/>
-      <c r="O194" s="8"/>
-    </row>
-    <row r="195" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="195" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K195"/>
+      <c r="M195" s="8"/>
       <c r="N195" s="8"/>
-      <c r="O195" s="8"/>
-    </row>
-    <row r="196" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="196" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K196"/>
+      <c r="M196" s="8"/>
       <c r="N196" s="8"/>
-      <c r="O196" s="8"/>
-    </row>
-    <row r="197" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="197" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K197"/>
+      <c r="M197" s="8"/>
       <c r="N197" s="8"/>
-      <c r="O197" s="8"/>
-    </row>
-    <row r="198" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="198" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K198"/>
+      <c r="M198" s="8"/>
       <c r="N198" s="8"/>
-      <c r="O198" s="8"/>
-    </row>
-    <row r="199" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="199" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K199"/>
+      <c r="M199" s="8"/>
       <c r="N199" s="8"/>
-      <c r="O199" s="8"/>
-    </row>
-    <row r="200" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="200" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K200"/>
+      <c r="M200" s="8"/>
       <c r="N200" s="8"/>
-      <c r="O200" s="8"/>
-    </row>
-    <row r="201" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="201" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K201"/>
+      <c r="M201" s="8"/>
       <c r="N201" s="8"/>
-      <c r="O201" s="8"/>
-    </row>
-    <row r="202" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="202" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K202"/>
+      <c r="M202" s="8"/>
       <c r="N202" s="8"/>
-      <c r="O202" s="8"/>
-    </row>
-    <row r="203" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="203" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K203"/>
+      <c r="M203" s="8"/>
       <c r="N203" s="8"/>
-      <c r="O203" s="8"/>
-    </row>
-    <row r="204" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="204" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K204"/>
+      <c r="M204" s="8"/>
       <c r="N204" s="8"/>
-      <c r="O204" s="8"/>
-    </row>
-    <row r="205" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="205" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K205"/>
+      <c r="M205" s="8"/>
       <c r="N205" s="8"/>
-      <c r="O205" s="8"/>
-    </row>
-    <row r="206" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="206" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K206"/>
+      <c r="M206" s="8"/>
       <c r="N206" s="8"/>
-      <c r="O206" s="8"/>
-    </row>
-    <row r="207" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="207" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K207"/>
+      <c r="M207" s="8"/>
       <c r="N207" s="8"/>
-      <c r="O207" s="8"/>
-    </row>
-    <row r="208" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="208" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K208"/>
+      <c r="M208" s="8"/>
       <c r="N208" s="8"/>
-      <c r="O208" s="8"/>
-    </row>
-    <row r="209" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="209" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K209"/>
+      <c r="M209" s="8"/>
       <c r="N209" s="8"/>
-      <c r="O209" s="8"/>
-    </row>
-    <row r="210" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="210" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K210"/>
+      <c r="M210" s="8"/>
       <c r="N210" s="8"/>
-      <c r="O210" s="8"/>
-    </row>
-    <row r="211" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="211" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K211"/>
+      <c r="M211" s="8"/>
       <c r="N211" s="8"/>
-      <c r="O211" s="8"/>
-    </row>
-    <row r="212" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="212" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K212"/>
+      <c r="M212" s="8"/>
       <c r="N212" s="8"/>
-      <c r="O212" s="8"/>
-    </row>
-    <row r="213" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="213" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K213"/>
+      <c r="M213" s="8"/>
       <c r="N213" s="8"/>
-      <c r="O213" s="8"/>
-    </row>
-    <row r="214" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="214" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K214"/>
+      <c r="M214" s="8"/>
       <c r="N214" s="8"/>
-      <c r="O214" s="8"/>
-    </row>
-    <row r="215" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="215" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K215"/>
+      <c r="M215" s="8"/>
       <c r="N215" s="8"/>
-      <c r="O215" s="8"/>
-    </row>
-    <row r="216" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="216" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K216"/>
+      <c r="M216" s="8"/>
       <c r="N216" s="8"/>
-      <c r="O216" s="8"/>
-    </row>
-    <row r="217" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="217" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K217"/>
+      <c r="M217" s="8"/>
       <c r="N217" s="8"/>
-      <c r="O217" s="8"/>
-    </row>
-    <row r="218" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="218" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K218"/>
+      <c r="M218" s="8"/>
       <c r="N218" s="8"/>
-      <c r="O218" s="8"/>
-    </row>
-    <row r="219" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="219" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K219"/>
+      <c r="M219" s="8"/>
       <c r="N219" s="8"/>
-      <c r="O219" s="8"/>
-    </row>
-    <row r="220" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="220" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K220"/>
+      <c r="M220" s="8"/>
       <c r="N220" s="8"/>
-      <c r="O220" s="8"/>
-    </row>
-    <row r="221" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="221" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K221"/>
+      <c r="M221" s="8"/>
       <c r="N221" s="8"/>
-      <c r="O221" s="8"/>
-    </row>
-    <row r="222" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="222" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K222"/>
+      <c r="M222" s="8"/>
       <c r="N222" s="8"/>
-      <c r="O222" s="8"/>
-    </row>
-    <row r="223" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="223" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K223"/>
+      <c r="M223" s="8"/>
       <c r="N223" s="8"/>
-      <c r="O223" s="8"/>
-    </row>
-    <row r="224" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="224" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K224"/>
+      <c r="M224" s="8"/>
       <c r="N224" s="8"/>
-      <c r="O224" s="8"/>
-    </row>
-    <row r="225" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="225" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K225"/>
+      <c r="M225" s="8"/>
       <c r="N225" s="8"/>
-      <c r="O225" s="8"/>
-    </row>
-    <row r="226" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="226" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K226"/>
+      <c r="M226" s="8"/>
       <c r="N226" s="8"/>
-      <c r="O226" s="8"/>
-    </row>
-    <row r="227" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="227" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K227"/>
+      <c r="M227" s="8"/>
       <c r="N227" s="8"/>
-      <c r="O227" s="8"/>
-    </row>
-    <row r="228" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="228" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K228"/>
+      <c r="M228" s="8"/>
       <c r="N228" s="8"/>
-      <c r="O228" s="8"/>
-    </row>
-    <row r="229" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="229" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K229"/>
+      <c r="M229" s="8"/>
       <c r="N229" s="8"/>
-      <c r="O229" s="8"/>
-    </row>
-    <row r="230" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="230" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K230"/>
+      <c r="M230" s="8"/>
       <c r="N230" s="8"/>
-      <c r="O230" s="8"/>
-    </row>
-    <row r="231" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="231" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K231"/>
+      <c r="M231" s="8"/>
       <c r="N231" s="8"/>
-      <c r="O231" s="8"/>
-    </row>
-    <row r="232" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="232" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K232"/>
+      <c r="M232" s="8"/>
       <c r="N232" s="8"/>
-      <c r="O232" s="8"/>
-    </row>
-    <row r="233" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="233" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K233"/>
+      <c r="M233" s="8"/>
       <c r="N233" s="8"/>
-      <c r="O233" s="8"/>
-    </row>
-    <row r="234" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="234" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K234"/>
+      <c r="M234" s="8"/>
       <c r="N234" s="8"/>
-      <c r="O234" s="8"/>
-    </row>
-    <row r="235" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="235" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K235"/>
+      <c r="M235" s="8"/>
       <c r="N235" s="8"/>
-      <c r="O235" s="8"/>
-    </row>
-    <row r="236" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="236" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K236"/>
+      <c r="M236" s="8"/>
       <c r="N236" s="8"/>
-      <c r="O236" s="8"/>
-    </row>
-    <row r="237" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="237" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K237"/>
+      <c r="M237" s="8"/>
       <c r="N237" s="8"/>
-      <c r="O237" s="8"/>
-    </row>
-    <row r="238" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="238" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K238"/>
+      <c r="M238" s="8"/>
       <c r="N238" s="8"/>
-      <c r="O238" s="8"/>
-    </row>
-    <row r="239" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="239" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K239"/>
+      <c r="M239" s="8"/>
       <c r="N239" s="8"/>
-      <c r="O239" s="8"/>
-    </row>
-    <row r="240" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="240" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K240"/>
+      <c r="M240" s="8"/>
       <c r="N240" s="8"/>
-      <c r="O240" s="8"/>
-    </row>
-    <row r="241" spans="11:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="241" spans="11:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K241"/>
+      <c r="M241" s="8"/>
       <c r="N241" s="8"/>
-      <c r="O241" s="8"/>
-    </row>
-    <row r="242" spans="11:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="242" spans="11:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K242"/>
+      <c r="M242" s="8"/>
       <c r="N242" s="8"/>
-      <c r="O242" s="8"/>
-    </row>
-    <row r="243" spans="11:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="243" spans="11:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K243"/>
+      <c r="M243" s="8"/>
       <c r="N243" s="8"/>
-      <c r="O243" s="8"/>
-    </row>
-    <row r="244" spans="11:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="244" spans="11:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K244"/>
+      <c r="M244" s="8"/>
       <c r="N244" s="8"/>
-      <c r="O244" s="8"/>
-    </row>
-    <row r="245" spans="11:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="245" spans="11:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K245"/>
+      <c r="M245" s="8"/>
       <c r="N245" s="8"/>
-      <c r="O245" s="8"/>
-    </row>
-    <row r="246" spans="11:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="246" spans="11:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K246"/>
+      <c r="M246" s="8"/>
       <c r="N246" s="8"/>
-      <c r="O246" s="8"/>
-    </row>
-    <row r="247" spans="11:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="247" spans="11:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K247"/>
+      <c r="M247" s="8"/>
       <c r="N247" s="8"/>
-      <c r="O247" s="8"/>
-    </row>
-    <row r="248" spans="11:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="248" spans="11:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K248"/>
+      <c r="M248" s="8"/>
       <c r="N248" s="8"/>
-      <c r="O248" s="8"/>
-    </row>
-    <row r="249" spans="11:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="249" spans="11:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K249"/>
+      <c r="M249" s="8"/>
       <c r="N249" s="8"/>
-      <c r="O249" s="8"/>
-    </row>
-    <row r="250" spans="11:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="250" spans="11:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K250"/>
+      <c r="M250" s="8"/>
       <c r="N250" s="8"/>
-      <c r="O250" s="8"/>
-    </row>
-    <row r="251" spans="11:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="11:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K251"/>
+      <c r="M251" s="8"/>
       <c r="N251" s="8"/>
-      <c r="O251" s="8"/>
+      <c r="W251" s="3"/>
       <c r="X251" s="3"/>
-      <c r="Y251" s="3"/>
-    </row>
-    <row r="252" spans="11:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="252" spans="11:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K252"/>
+      <c r="M252" s="8"/>
       <c r="N252" s="8"/>
-      <c r="O252" s="8"/>
-    </row>
-    <row r="253" spans="11:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="253" spans="11:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K253"/>
+      <c r="M253" s="8"/>
       <c r="N253" s="8"/>
-      <c r="O253" s="8"/>
-    </row>
-    <row r="254" spans="11:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="254" spans="11:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K254"/>
+      <c r="M254" s="8"/>
       <c r="N254" s="8"/>
-      <c r="O254" s="8"/>
-    </row>
-    <row r="255" spans="11:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="255" spans="11:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K255"/>
+      <c r="M255" s="8"/>
       <c r="N255" s="8"/>
-      <c r="O255" s="8"/>
-    </row>
-    <row r="256" spans="11:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="256" spans="11:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K256"/>
+      <c r="M256" s="8"/>
       <c r="N256" s="8"/>
-      <c r="O256" s="8"/>
-    </row>
-    <row r="257" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="257" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K257"/>
+      <c r="M257" s="8"/>
       <c r="N257" s="8"/>
-      <c r="O257" s="8"/>
-    </row>
-    <row r="258" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="258" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K258"/>
+      <c r="M258" s="8"/>
       <c r="N258" s="8"/>
-      <c r="O258" s="8"/>
-    </row>
-    <row r="259" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="259" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K259"/>
+      <c r="M259" s="8"/>
       <c r="N259" s="8"/>
-      <c r="O259" s="8"/>
-    </row>
-    <row r="260" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="260" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K260"/>
+      <c r="M260" s="8"/>
       <c r="N260" s="8"/>
-      <c r="O260" s="8"/>
-    </row>
-    <row r="261" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="261" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K261"/>
+      <c r="M261" s="8"/>
       <c r="N261" s="8"/>
-      <c r="O261" s="8"/>
-    </row>
-    <row r="262" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="262" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K262"/>
+      <c r="M262" s="8"/>
       <c r="N262" s="8"/>
-      <c r="O262" s="8"/>
-    </row>
-    <row r="263" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="263" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K263"/>
+      <c r="M263" s="8"/>
       <c r="N263" s="8"/>
-      <c r="O263" s="8"/>
-    </row>
-    <row r="264" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="264" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K264"/>
+      <c r="M264" s="8"/>
       <c r="N264" s="8"/>
-      <c r="O264" s="8"/>
-    </row>
-    <row r="265" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="265" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K265"/>
+      <c r="M265" s="8"/>
       <c r="N265" s="8"/>
-      <c r="O265" s="8"/>
-    </row>
-    <row r="266" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="266" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K266"/>
+      <c r="M266" s="8"/>
       <c r="N266" s="8"/>
-      <c r="O266" s="8"/>
-    </row>
-    <row r="267" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="267" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K267"/>
+      <c r="M267" s="8"/>
       <c r="N267" s="8"/>
-      <c r="O267" s="8"/>
-    </row>
-    <row r="268" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="268" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K268"/>
+      <c r="M268" s="8"/>
       <c r="N268" s="8"/>
-      <c r="O268" s="8"/>
-    </row>
-    <row r="269" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="269" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K269"/>
+      <c r="M269" s="8"/>
       <c r="N269" s="8"/>
-      <c r="O269" s="8"/>
-    </row>
-    <row r="270" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="270" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K270"/>
+      <c r="M270" s="8"/>
       <c r="N270" s="8"/>
-      <c r="O270" s="8"/>
-    </row>
-    <row r="271" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="271" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K271"/>
+      <c r="M271" s="8"/>
       <c r="N271" s="8"/>
-      <c r="O271" s="8"/>
-    </row>
-    <row r="272" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="272" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K272"/>
+      <c r="M272" s="8"/>
       <c r="N272" s="8"/>
-      <c r="O272" s="8"/>
-    </row>
-    <row r="273" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="273" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K273"/>
+      <c r="M273" s="8"/>
       <c r="N273" s="8"/>
-      <c r="O273" s="8"/>
-    </row>
-    <row r="274" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="274" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K274"/>
+      <c r="M274" s="8"/>
       <c r="N274" s="8"/>
-      <c r="O274" s="8"/>
-    </row>
-    <row r="275" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="275" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K275"/>
+      <c r="M275" s="8"/>
       <c r="N275" s="8"/>
-      <c r="O275" s="8"/>
-    </row>
-    <row r="276" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="276" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K276"/>
+      <c r="M276" s="8"/>
       <c r="N276" s="8"/>
-      <c r="O276" s="8"/>
-    </row>
-    <row r="277" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="277" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K277"/>
+      <c r="M277" s="8"/>
       <c r="N277" s="8"/>
-      <c r="O277" s="8"/>
-    </row>
-    <row r="278" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="278" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K278"/>
+      <c r="M278" s="8"/>
       <c r="N278" s="8"/>
-      <c r="O278" s="8"/>
-    </row>
-    <row r="279" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="279" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K279"/>
+      <c r="M279" s="8"/>
       <c r="N279" s="8"/>
-      <c r="O279" s="8"/>
-    </row>
-    <row r="280" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="280" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K280"/>
+      <c r="M280" s="8"/>
       <c r="N280" s="8"/>
-      <c r="O280" s="8"/>
-    </row>
-    <row r="281" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="281" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K281"/>
+      <c r="M281" s="8"/>
       <c r="N281" s="8"/>
-      <c r="O281" s="8"/>
-    </row>
-    <row r="282" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="282" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K282"/>
+      <c r="M282" s="8"/>
       <c r="N282" s="8"/>
-      <c r="O282" s="8"/>
-    </row>
-    <row r="283" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="283" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K283"/>
+      <c r="M283" s="8"/>
       <c r="N283" s="8"/>
-      <c r="O283" s="8"/>
-    </row>
-    <row r="284" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="284" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K284"/>
+      <c r="M284" s="8"/>
       <c r="N284" s="8"/>
-      <c r="O284" s="8"/>
-    </row>
-    <row r="285" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="285" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K285"/>
+      <c r="M285" s="8"/>
       <c r="N285" s="8"/>
-      <c r="O285" s="8"/>
-    </row>
-    <row r="286" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="286" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K286"/>
+      <c r="M286" s="8"/>
       <c r="N286" s="8"/>
-      <c r="O286" s="8"/>
-    </row>
-    <row r="287" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="287" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K287"/>
+      <c r="M287" s="8"/>
       <c r="N287" s="8"/>
-      <c r="O287" s="8"/>
-    </row>
-    <row r="288" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="288" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K288"/>
+      <c r="M288" s="8"/>
       <c r="N288" s="8"/>
-      <c r="O288" s="8"/>
-    </row>
-    <row r="289" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="289" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K289"/>
+      <c r="M289" s="8"/>
       <c r="N289" s="8"/>
-      <c r="O289" s="8"/>
-    </row>
-    <row r="290" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="290" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K290"/>
+      <c r="M290" s="8"/>
       <c r="N290" s="8"/>
-      <c r="O290" s="8"/>
-    </row>
-    <row r="291" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="291" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K291"/>
+      <c r="M291" s="8"/>
       <c r="N291" s="8"/>
-      <c r="O291" s="8"/>
-    </row>
-    <row r="292" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="292" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K292"/>
+      <c r="M292" s="8"/>
       <c r="N292" s="8"/>
-      <c r="O292" s="8"/>
-    </row>
-    <row r="293" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="293" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K293"/>
+      <c r="M293" s="8"/>
       <c r="N293" s="8"/>
-      <c r="O293" s="8"/>
-    </row>
-    <row r="294" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="294" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K294"/>
+      <c r="M294" s="8"/>
       <c r="N294" s="8"/>
-      <c r="O294" s="8"/>
-    </row>
-    <row r="295" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="295" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K295"/>
+      <c r="M295" s="8"/>
       <c r="N295" s="8"/>
-      <c r="O295" s="8"/>
-    </row>
-    <row r="296" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="296" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K296"/>
+      <c r="M296" s="8"/>
       <c r="N296" s="8"/>
-      <c r="O296" s="8"/>
-    </row>
-    <row r="297" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="297" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K297"/>
+      <c r="M297" s="8"/>
       <c r="N297" s="8"/>
-      <c r="O297" s="8"/>
-    </row>
-    <row r="298" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="298" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K298"/>
+      <c r="M298" s="8"/>
       <c r="N298" s="8"/>
-      <c r="O298" s="8"/>
-    </row>
-    <row r="299" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="299" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K299"/>
+      <c r="M299" s="8"/>
       <c r="N299" s="8"/>
-      <c r="O299" s="8"/>
-    </row>
-    <row r="300" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="300" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K300"/>
+      <c r="M300" s="8"/>
       <c r="N300" s="8"/>
-      <c r="O300" s="8"/>
-    </row>
-    <row r="301" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="301" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K301"/>
+      <c r="M301" s="8"/>
       <c r="N301" s="8"/>
-      <c r="O301" s="8"/>
-    </row>
-    <row r="302" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="302" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K302"/>
+      <c r="M302" s="8"/>
       <c r="N302" s="8"/>
-      <c r="O302" s="8"/>
-    </row>
-    <row r="303" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="303" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K303"/>
+      <c r="M303" s="8"/>
       <c r="N303" s="8"/>
-      <c r="O303" s="8"/>
-    </row>
-    <row r="304" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="304" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K304"/>
+      <c r="M304" s="8"/>
       <c r="N304" s="8"/>
-      <c r="O304" s="8"/>
-    </row>
-    <row r="305" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="305" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K305"/>
+      <c r="M305" s="8"/>
       <c r="N305" s="8"/>
-      <c r="O305" s="8"/>
-    </row>
-    <row r="306" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="306" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K306"/>
+      <c r="M306" s="8"/>
       <c r="N306" s="8"/>
-      <c r="O306" s="8"/>
-    </row>
-    <row r="307" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="307" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K307"/>
+      <c r="M307" s="8"/>
       <c r="N307" s="8"/>
-      <c r="O307" s="8"/>
-    </row>
-    <row r="308" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="308" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K308"/>
+      <c r="M308" s="8"/>
       <c r="N308" s="8"/>
-      <c r="O308" s="8"/>
-    </row>
-    <row r="309" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="309" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K309"/>
+      <c r="M309" s="8"/>
       <c r="N309" s="8"/>
-      <c r="O309" s="8"/>
-    </row>
-    <row r="310" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="310" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K310"/>
+      <c r="M310" s="8"/>
       <c r="N310" s="8"/>
-      <c r="O310" s="8"/>
-    </row>
-    <row r="311" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="311" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K311"/>
+      <c r="M311" s="8"/>
       <c r="N311" s="8"/>
-      <c r="O311" s="8"/>
-    </row>
-    <row r="312" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="312" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K312"/>
+      <c r="M312" s="8"/>
       <c r="N312" s="8"/>
-      <c r="O312" s="8"/>
-    </row>
-    <row r="313" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="313" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K313"/>
+      <c r="M313" s="8"/>
       <c r="N313" s="8"/>
-      <c r="O313" s="8"/>
-    </row>
-    <row r="314" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="314" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K314"/>
+      <c r="M314" s="8"/>
       <c r="N314" s="8"/>
-      <c r="O314" s="8"/>
-    </row>
-    <row r="315" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="315" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K315"/>
+      <c r="M315" s="8"/>
       <c r="N315" s="8"/>
-      <c r="O315" s="8"/>
-    </row>
-    <row r="316" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="316" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K316"/>
+      <c r="M316" s="8"/>
       <c r="N316" s="8"/>
-      <c r="O316" s="8"/>
-    </row>
-    <row r="317" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="317" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K317"/>
+      <c r="M317" s="8"/>
       <c r="N317" s="8"/>
-      <c r="O317" s="8"/>
-    </row>
-    <row r="318" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="318" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K318"/>
+      <c r="M318" s="8"/>
       <c r="N318" s="8"/>
-      <c r="O318" s="8"/>
-    </row>
-    <row r="319" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="319" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K319"/>
+      <c r="M319" s="8"/>
       <c r="N319" s="8"/>
-      <c r="O319" s="8"/>
-    </row>
-    <row r="320" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="320" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K320"/>
+      <c r="M320" s="8"/>
       <c r="N320" s="8"/>
-      <c r="O320" s="8"/>
-    </row>
-    <row r="321" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="321" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K321"/>
+      <c r="M321" s="8"/>
       <c r="N321" s="8"/>
-      <c r="O321" s="8"/>
-    </row>
-    <row r="322" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="322" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K322"/>
+      <c r="M322" s="8"/>
       <c r="N322" s="8"/>
-      <c r="O322" s="8"/>
-    </row>
-    <row r="323" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="323" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K323"/>
+      <c r="M323" s="8"/>
       <c r="N323" s="8"/>
-      <c r="O323" s="8"/>
-    </row>
-    <row r="324" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="324" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K324"/>
+      <c r="M324" s="8"/>
       <c r="N324" s="8"/>
-      <c r="O324" s="8"/>
-    </row>
-    <row r="325" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="325" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K325"/>
+      <c r="M325" s="8"/>
       <c r="N325" s="8"/>
-      <c r="O325" s="8"/>
-    </row>
-    <row r="326" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="326" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K326"/>
+      <c r="M326" s="8"/>
       <c r="N326" s="8"/>
-      <c r="O326" s="8"/>
-    </row>
-    <row r="327" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="327" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K327"/>
+      <c r="M327" s="8"/>
       <c r="N327" s="8"/>
-      <c r="O327" s="8"/>
-    </row>
-    <row r="328" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="328" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K328"/>
+      <c r="M328" s="8"/>
       <c r="N328" s="8"/>
-      <c r="O328" s="8"/>
-    </row>
-    <row r="329" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="329" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K329"/>
+      <c r="M329" s="8"/>
       <c r="N329" s="8"/>
-      <c r="O329" s="8"/>
-    </row>
-    <row r="330" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="330" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K330"/>
+      <c r="M330" s="8"/>
       <c r="N330" s="8"/>
-      <c r="O330" s="8"/>
-    </row>
-    <row r="331" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="331" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K331"/>
+      <c r="M331" s="8"/>
       <c r="N331" s="8"/>
-      <c r="O331" s="8"/>
-    </row>
-    <row r="332" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="332" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K332"/>
+      <c r="M332" s="8"/>
       <c r="N332" s="8"/>
-      <c r="O332" s="8"/>
-    </row>
-    <row r="333" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="333" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K333"/>
+      <c r="M333" s="8"/>
       <c r="N333" s="8"/>
-      <c r="O333" s="8"/>
-    </row>
-    <row r="334" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="334" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K334"/>
+      <c r="M334" s="8"/>
       <c r="N334" s="8"/>
-      <c r="O334" s="8"/>
-    </row>
-    <row r="335" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="335" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K335"/>
+      <c r="M335" s="8"/>
       <c r="N335" s="8"/>
-      <c r="O335" s="8"/>
-    </row>
-    <row r="336" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="336" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K336"/>
+      <c r="M336" s="8"/>
       <c r="N336" s="8"/>
-      <c r="O336" s="8"/>
-    </row>
-    <row r="337" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="337" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K337"/>
+      <c r="M337" s="8"/>
       <c r="N337" s="8"/>
-      <c r="O337" s="8"/>
-    </row>
-    <row r="338" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="338" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K338"/>
+      <c r="M338" s="8"/>
       <c r="N338" s="8"/>
-      <c r="O338" s="8"/>
-    </row>
-    <row r="339" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="339" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K339"/>
+      <c r="M339" s="8"/>
       <c r="N339" s="8"/>
-      <c r="O339" s="8"/>
-    </row>
-    <row r="340" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="340" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K340"/>
+      <c r="M340" s="8"/>
       <c r="N340" s="8"/>
-      <c r="O340" s="8"/>
-    </row>
-    <row r="341" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="341" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K341"/>
+      <c r="M341" s="8"/>
       <c r="N341" s="8"/>
-      <c r="O341" s="8"/>
-    </row>
-    <row r="342" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="342" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K342"/>
+      <c r="M342" s="8"/>
       <c r="N342" s="8"/>
-      <c r="O342" s="8"/>
-    </row>
-    <row r="343" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="343" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K343"/>
+      <c r="M343" s="8"/>
       <c r="N343" s="8"/>
-      <c r="O343" s="8"/>
-    </row>
-    <row r="344" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="344" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K344"/>
+      <c r="M344" s="8"/>
       <c r="N344" s="8"/>
-      <c r="O344" s="8"/>
-    </row>
-    <row r="345" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="345" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K345"/>
+      <c r="M345" s="8"/>
       <c r="N345" s="8"/>
-      <c r="O345" s="8"/>
-    </row>
-    <row r="346" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="346" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K346"/>
+      <c r="M346" s="8"/>
       <c r="N346" s="8"/>
-      <c r="O346" s="8"/>
-    </row>
-    <row r="347" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="347" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K347"/>
+      <c r="M347" s="8"/>
       <c r="N347" s="8"/>
-      <c r="O347" s="8"/>
-    </row>
-    <row r="348" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="348" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K348"/>
+      <c r="M348" s="8"/>
       <c r="N348" s="8"/>
-      <c r="O348" s="8"/>
-    </row>
-    <row r="349" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="349" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K349"/>
+      <c r="M349" s="8"/>
       <c r="N349" s="8"/>
-      <c r="O349" s="8"/>
-    </row>
-    <row r="350" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="350" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K350"/>
+      <c r="M350" s="8"/>
       <c r="N350" s="8"/>
-      <c r="O350" s="8"/>
-    </row>
-    <row r="351" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="351" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K351"/>
+      <c r="M351" s="8"/>
       <c r="N351" s="8"/>
-      <c r="O351" s="8"/>
-    </row>
-    <row r="352" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="352" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K352"/>
+      <c r="M352" s="8"/>
       <c r="N352" s="8"/>
-      <c r="O352" s="8"/>
-    </row>
-    <row r="353" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="353" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K353"/>
+      <c r="M353" s="8"/>
       <c r="N353" s="8"/>
-      <c r="O353" s="8"/>
-    </row>
-    <row r="354" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="354" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K354"/>
+      <c r="M354" s="8"/>
       <c r="N354" s="8"/>
-      <c r="O354" s="8"/>
-    </row>
-    <row r="355" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="355" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K355"/>
+      <c r="M355" s="8"/>
       <c r="N355" s="8"/>
-      <c r="O355" s="8"/>
-    </row>
-    <row r="356" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="356" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K356"/>
+      <c r="M356" s="8"/>
       <c r="N356" s="8"/>
-      <c r="O356" s="8"/>
-    </row>
-    <row r="357" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="357" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K357"/>
+      <c r="M357" s="8"/>
       <c r="N357" s="8"/>
-      <c r="O357" s="8"/>
-    </row>
-    <row r="358" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="358" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K358"/>
+      <c r="M358" s="8"/>
       <c r="N358" s="8"/>
-      <c r="O358" s="8"/>
-    </row>
-    <row r="359" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="359" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K359"/>
+      <c r="M359" s="8"/>
       <c r="N359" s="8"/>
-      <c r="O359" s="8"/>
-    </row>
-    <row r="360" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="360" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K360"/>
+      <c r="M360" s="8"/>
       <c r="N360" s="8"/>
-      <c r="O360" s="8"/>
-    </row>
-    <row r="361" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="361" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K361"/>
+      <c r="M361" s="8"/>
       <c r="N361" s="8"/>
-      <c r="O361" s="8"/>
-    </row>
-    <row r="362" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="362" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K362"/>
+      <c r="M362" s="8"/>
       <c r="N362" s="8"/>
-      <c r="O362" s="8"/>
-    </row>
-    <row r="363" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="363" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K363"/>
+      <c r="M363" s="8"/>
       <c r="N363" s="8"/>
-      <c r="O363" s="8"/>
-    </row>
-    <row r="364" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="364" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K364"/>
+      <c r="M364" s="8"/>
       <c r="N364" s="8"/>
-      <c r="O364" s="8"/>
-    </row>
-    <row r="365" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="365" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K365"/>
+      <c r="M365" s="8"/>
       <c r="N365" s="8"/>
-      <c r="O365" s="8"/>
-    </row>
-    <row r="366" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="366" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K366"/>
+      <c r="M366" s="8"/>
       <c r="N366" s="8"/>
-      <c r="O366" s="8"/>
-    </row>
-    <row r="367" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="367" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K367"/>
+      <c r="M367" s="8"/>
       <c r="N367" s="8"/>
-      <c r="O367" s="8"/>
-    </row>
-    <row r="368" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="368" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K368"/>
+      <c r="M368" s="8"/>
       <c r="N368" s="8"/>
-      <c r="O368" s="8"/>
-    </row>
-    <row r="369" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="369" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K369"/>
+      <c r="M369" s="8"/>
       <c r="N369" s="8"/>
-      <c r="O369" s="8"/>
-    </row>
-    <row r="370" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="370" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K370"/>
+      <c r="M370" s="8"/>
       <c r="N370" s="8"/>
-      <c r="O370" s="8"/>
-    </row>
-    <row r="371" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="371" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K371"/>
+      <c r="M371" s="8"/>
       <c r="N371" s="8"/>
-      <c r="O371" s="8"/>
-    </row>
-    <row r="372" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="372" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K372"/>
+      <c r="M372" s="8"/>
       <c r="N372" s="8"/>
-      <c r="O372" s="8"/>
-    </row>
-    <row r="373" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="373" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K373"/>
+      <c r="M373" s="8"/>
       <c r="N373" s="8"/>
-      <c r="O373" s="8"/>
-    </row>
-    <row r="374" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="374" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K374"/>
+      <c r="M374" s="8"/>
       <c r="N374" s="8"/>
-      <c r="O374" s="8"/>
-    </row>
-    <row r="375" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="375" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K375"/>
+      <c r="M375" s="8"/>
       <c r="N375" s="8"/>
-      <c r="O375" s="8"/>
-    </row>
-    <row r="376" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="376" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K376"/>
+      <c r="M376" s="8"/>
       <c r="N376" s="8"/>
-      <c r="O376" s="8"/>
-    </row>
-    <row r="377" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="377" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K377"/>
+      <c r="M377" s="8"/>
       <c r="N377" s="8"/>
-      <c r="O377" s="8"/>
-    </row>
-    <row r="378" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="378" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K378"/>
+      <c r="M378" s="8"/>
       <c r="N378" s="8"/>
-      <c r="O378" s="8"/>
-    </row>
-    <row r="379" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="379" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K379"/>
+      <c r="M379" s="8"/>
       <c r="N379" s="8"/>
-      <c r="O379" s="8"/>
-    </row>
-    <row r="380" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="380" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K380"/>
+      <c r="M380" s="8"/>
       <c r="N380" s="8"/>
-      <c r="O380" s="8"/>
-    </row>
-    <row r="381" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="381" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K381"/>
+      <c r="M381" s="8"/>
       <c r="N381" s="8"/>
-      <c r="O381" s="8"/>
-    </row>
-    <row r="382" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="382" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K382"/>
+      <c r="M382" s="8"/>
       <c r="N382" s="8"/>
-      <c r="O382" s="8"/>
-    </row>
-    <row r="383" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="383" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K383"/>
+      <c r="M383" s="8"/>
       <c r="N383" s="8"/>
-      <c r="O383" s="8"/>
-    </row>
-    <row r="384" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="384" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K384"/>
+      <c r="M384" s="8"/>
       <c r="N384" s="8"/>
-      <c r="O384" s="8"/>
-    </row>
-    <row r="385" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="385" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K385"/>
+      <c r="M385" s="8"/>
       <c r="N385" s="8"/>
-      <c r="O385" s="8"/>
-    </row>
-    <row r="386" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="386" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K386"/>
+      <c r="M386" s="8"/>
       <c r="N386" s="8"/>
-      <c r="O386" s="8"/>
-    </row>
-    <row r="387" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="387" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K387"/>
+      <c r="M387" s="8"/>
       <c r="N387" s="8"/>
-      <c r="O387" s="8"/>
-    </row>
-    <row r="388" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="388" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K388"/>
+      <c r="M388" s="8"/>
       <c r="N388" s="8"/>
-      <c r="O388" s="8"/>
-    </row>
-    <row r="389" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="389" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K389"/>
+      <c r="M389" s="8"/>
       <c r="N389" s="8"/>
-      <c r="O389" s="8"/>
-    </row>
-    <row r="390" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="390" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K390"/>
+      <c r="M390" s="8"/>
       <c r="N390" s="8"/>
-      <c r="O390" s="8"/>
-    </row>
-    <row r="391" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="391" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K391"/>
+      <c r="M391" s="8"/>
       <c r="N391" s="8"/>
-      <c r="O391" s="8"/>
-    </row>
-    <row r="392" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="392" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K392"/>
+      <c r="M392" s="8"/>
       <c r="N392" s="8"/>
-      <c r="O392" s="8"/>
-    </row>
-    <row r="393" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="393" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K393"/>
+      <c r="M393" s="8"/>
       <c r="N393" s="8"/>
-      <c r="O393" s="8"/>
-    </row>
-    <row r="394" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="394" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K394"/>
+      <c r="M394" s="8"/>
       <c r="N394" s="8"/>
-      <c r="O394" s="8"/>
-    </row>
-    <row r="395" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="395" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K395"/>
+      <c r="M395" s="8"/>
       <c r="N395" s="8"/>
-      <c r="O395" s="8"/>
-    </row>
-    <row r="396" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="396" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K396"/>
+      <c r="M396" s="8"/>
       <c r="N396" s="8"/>
-      <c r="O396" s="8"/>
-    </row>
-    <row r="397" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="397" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K397"/>
+      <c r="M397" s="8"/>
       <c r="N397" s="8"/>
-      <c r="O397" s="8"/>
-    </row>
-    <row r="398" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="398" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K398"/>
+      <c r="M398" s="8"/>
       <c r="N398" s="8"/>
-      <c r="O398" s="8"/>
-    </row>
-    <row r="399" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="399" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K399"/>
+      <c r="M399" s="8"/>
       <c r="N399" s="8"/>
-      <c r="O399" s="8"/>
-    </row>
-    <row r="400" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="400" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K400"/>
+      <c r="M400" s="8"/>
       <c r="N400" s="8"/>
-      <c r="O400" s="8"/>
-    </row>
-    <row r="401" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="401" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K401"/>
+      <c r="M401" s="8"/>
       <c r="N401" s="8"/>
-      <c r="O401" s="8"/>
-    </row>
-    <row r="402" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="402" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K402"/>
+      <c r="M402" s="8"/>
       <c r="N402" s="8"/>
-      <c r="O402" s="8"/>
-    </row>
-    <row r="403" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="403" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K403"/>
+      <c r="M403" s="8"/>
       <c r="N403" s="8"/>
-      <c r="O403" s="8"/>
-    </row>
-    <row r="404" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="404" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K404"/>
+      <c r="M404" s="8"/>
       <c r="N404" s="8"/>
-      <c r="O404" s="8"/>
-    </row>
-    <row r="405" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="405" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K405"/>
+      <c r="M405" s="8"/>
       <c r="N405" s="8"/>
-      <c r="O405" s="8"/>
-    </row>
-    <row r="406" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="406" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K406"/>
+      <c r="M406" s="8"/>
       <c r="N406" s="8"/>
-      <c r="O406" s="8"/>
-    </row>
-    <row r="407" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="407" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K407"/>
+      <c r="M407" s="8"/>
       <c r="N407" s="8"/>
-      <c r="O407" s="8"/>
-    </row>
-    <row r="408" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="408" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K408"/>
+      <c r="M408" s="8"/>
       <c r="N408" s="8"/>
-      <c r="O408" s="8"/>
-    </row>
-    <row r="409" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="409" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K409"/>
+      <c r="M409" s="8"/>
       <c r="N409" s="8"/>
-      <c r="O409" s="8"/>
-    </row>
-    <row r="410" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="410" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K410"/>
-      <c r="N410" s="8"/>
-    </row>
-    <row r="411" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M410" s="8"/>
+    </row>
+    <row r="411" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K411"/>
-      <c r="N411" s="8"/>
-    </row>
-    <row r="412" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M411" s="8"/>
+    </row>
+    <row r="412" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K412"/>
-      <c r="N412" s="8"/>
-    </row>
-    <row r="413" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M412" s="8"/>
+    </row>
+    <row r="413" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K413"/>
-      <c r="N413" s="8"/>
-    </row>
-    <row r="414" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M413" s="8"/>
+    </row>
+    <row r="414" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K414"/>
-      <c r="N414" s="8"/>
-    </row>
-    <row r="415" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M414" s="8"/>
+    </row>
+    <row r="415" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K415"/>
-      <c r="N415" s="8"/>
-    </row>
-    <row r="416" spans="11:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M415" s="8"/>
+    </row>
+    <row r="416" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K416"/>
-      <c r="N416" s="8"/>
-    </row>
-    <row r="417" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M416" s="8"/>
+    </row>
+    <row r="417" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K417"/>
-      <c r="N417" s="8"/>
-    </row>
-    <row r="418" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M417" s="8"/>
+    </row>
+    <row r="418" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K418"/>
-      <c r="N418" s="8"/>
-    </row>
-    <row r="419" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M418" s="8"/>
+    </row>
+    <row r="419" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K419"/>
-      <c r="N419" s="8"/>
-    </row>
-    <row r="420" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M419" s="8"/>
+    </row>
+    <row r="420" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K420"/>
-      <c r="N420" s="8"/>
-    </row>
-    <row r="421" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M420" s="8"/>
+    </row>
+    <row r="421" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K421"/>
-      <c r="N421" s="8"/>
-    </row>
-    <row r="422" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M421" s="8"/>
+    </row>
+    <row r="422" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K422"/>
-      <c r="N422" s="8"/>
-    </row>
-    <row r="423" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M422" s="8"/>
+    </row>
+    <row r="423" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K423"/>
-      <c r="N423" s="8"/>
-    </row>
-    <row r="424" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M423" s="8"/>
+    </row>
+    <row r="424" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K424"/>
-      <c r="N424" s="8"/>
-    </row>
-    <row r="425" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M424" s="8"/>
+    </row>
+    <row r="425" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K425"/>
-      <c r="N425" s="8"/>
-    </row>
-    <row r="426" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M425" s="8"/>
+    </row>
+    <row r="426" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K426"/>
-      <c r="N426" s="8"/>
-    </row>
-    <row r="427" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M426" s="8"/>
+    </row>
+    <row r="427" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K427"/>
-      <c r="N427" s="8"/>
-    </row>
-    <row r="428" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M427" s="8"/>
+    </row>
+    <row r="428" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K428"/>
-      <c r="N428" s="8"/>
-    </row>
-    <row r="429" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M428" s="8"/>
+    </row>
+    <row r="429" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K429"/>
-      <c r="N429" s="8"/>
-    </row>
-    <row r="430" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M429" s="8"/>
+    </row>
+    <row r="430" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K430"/>
-      <c r="N430" s="8"/>
-    </row>
-    <row r="431" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M430" s="8"/>
+    </row>
+    <row r="431" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K431"/>
-      <c r="N431" s="8"/>
-    </row>
-    <row r="432" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M431" s="8"/>
+    </row>
+    <row r="432" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K432"/>
-      <c r="N432" s="8"/>
-    </row>
-    <row r="433" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M432" s="8"/>
+    </row>
+    <row r="433" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K433"/>
-      <c r="N433" s="8"/>
-    </row>
-    <row r="434" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M433" s="8"/>
+    </row>
+    <row r="434" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K434"/>
-      <c r="N434" s="8"/>
-    </row>
-    <row r="435" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M434" s="8"/>
+    </row>
+    <row r="435" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K435"/>
-      <c r="N435" s="8"/>
-    </row>
-    <row r="436" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M435" s="8"/>
+    </row>
+    <row r="436" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K436"/>
-      <c r="N436" s="8"/>
-    </row>
-    <row r="437" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M436" s="8"/>
+    </row>
+    <row r="437" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K437"/>
-      <c r="N437" s="8"/>
-    </row>
-    <row r="438" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M437" s="8"/>
+    </row>
+    <row r="438" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K438"/>
-      <c r="N438" s="8"/>
-    </row>
-    <row r="439" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M438" s="8"/>
+    </row>
+    <row r="439" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K439"/>
-      <c r="N439" s="8"/>
-    </row>
-    <row r="440" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M439" s="8"/>
+    </row>
+    <row r="440" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K440"/>
-      <c r="N440" s="8"/>
-    </row>
-    <row r="441" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M440" s="8"/>
+    </row>
+    <row r="441" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K441"/>
-      <c r="N441" s="8"/>
-    </row>
-    <row r="442" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M441" s="8"/>
+    </row>
+    <row r="442" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K442"/>
-      <c r="N442" s="8"/>
-    </row>
-    <row r="443" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M442" s="8"/>
+    </row>
+    <row r="443" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K443"/>
-      <c r="N443" s="8"/>
-    </row>
-    <row r="444" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M443" s="8"/>
+    </row>
+    <row r="444" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K444"/>
-      <c r="N444" s="8"/>
-    </row>
-    <row r="445" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M444" s="8"/>
+    </row>
+    <row r="445" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K445"/>
-      <c r="N445" s="8"/>
-    </row>
-    <row r="446" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M445" s="8"/>
+    </row>
+    <row r="446" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K446"/>
-      <c r="N446" s="8"/>
-    </row>
-    <row r="447" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M446" s="8"/>
+    </row>
+    <row r="447" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K447"/>
-      <c r="N447" s="8"/>
-    </row>
-    <row r="448" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M447" s="8"/>
+    </row>
+    <row r="448" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K448"/>
-      <c r="N448" s="8"/>
-    </row>
-    <row r="449" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M448" s="8"/>
+    </row>
+    <row r="449" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K449"/>
-      <c r="N449" s="8"/>
-    </row>
-    <row r="450" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M449" s="8"/>
+    </row>
+    <row r="450" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K450"/>
-      <c r="N450" s="8"/>
-    </row>
-    <row r="451" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M450" s="8"/>
+    </row>
+    <row r="451" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K451"/>
-      <c r="N451" s="8"/>
-    </row>
-    <row r="452" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M451" s="8"/>
+    </row>
+    <row r="452" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K452"/>
-      <c r="N452" s="8"/>
-    </row>
-    <row r="453" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M452" s="8"/>
+    </row>
+    <row r="453" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K453"/>
-      <c r="N453" s="8"/>
-    </row>
-    <row r="454" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M453" s="8"/>
+    </row>
+    <row r="454" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K454"/>
-      <c r="N454" s="8"/>
-    </row>
-    <row r="455" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M454" s="8"/>
+    </row>
+    <row r="455" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K455"/>
-      <c r="N455" s="8"/>
-    </row>
-    <row r="456" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M455" s="8"/>
+    </row>
+    <row r="456" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K456"/>
-      <c r="N456" s="8"/>
-    </row>
-    <row r="457" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M456" s="8"/>
+    </row>
+    <row r="457" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K457"/>
-      <c r="N457" s="8"/>
-    </row>
-    <row r="458" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M457" s="8"/>
+    </row>
+    <row r="458" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K458"/>
-      <c r="N458" s="8"/>
-    </row>
-    <row r="459" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M458" s="8"/>
+    </row>
+    <row r="459" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K459"/>
-      <c r="N459" s="8"/>
-    </row>
-    <row r="460" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M459" s="8"/>
+    </row>
+    <row r="460" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K460"/>
-      <c r="N460" s="8"/>
-    </row>
-    <row r="461" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M460" s="8"/>
+    </row>
+    <row r="461" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K461"/>
-      <c r="N461" s="8"/>
-    </row>
-    <row r="462" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M461" s="8"/>
+    </row>
+    <row r="462" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K462"/>
-      <c r="N462" s="8"/>
-    </row>
-    <row r="463" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M462" s="8"/>
+    </row>
+    <row r="463" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K463"/>
-      <c r="N463" s="8"/>
-    </row>
-    <row r="464" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M463" s="8"/>
+    </row>
+    <row r="464" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K464"/>
-      <c r="N464" s="8"/>
-    </row>
-    <row r="465" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M464" s="8"/>
+    </row>
+    <row r="465" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K465"/>
-      <c r="N465" s="8"/>
-    </row>
-    <row r="466" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M465" s="8"/>
+    </row>
+    <row r="466" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K466"/>
-      <c r="N466" s="8"/>
-    </row>
-    <row r="467" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M466" s="8"/>
+    </row>
+    <row r="467" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K467"/>
-      <c r="N467" s="8"/>
-    </row>
-    <row r="468" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M467" s="8"/>
+    </row>
+    <row r="468" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K468"/>
-      <c r="N468" s="8"/>
-    </row>
-    <row r="469" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M468" s="8"/>
+    </row>
+    <row r="469" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K469"/>
-      <c r="N469" s="8"/>
-    </row>
-    <row r="470" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M469" s="8"/>
+    </row>
+    <row r="470" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K470"/>
-      <c r="N470" s="8"/>
-    </row>
-    <row r="471" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M470" s="8"/>
+    </row>
+    <row r="471" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K471"/>
-      <c r="N471" s="8"/>
-    </row>
-    <row r="472" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M471" s="8"/>
+    </row>
+    <row r="472" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K472"/>
-      <c r="N472" s="8"/>
-    </row>
-    <row r="473" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M472" s="8"/>
+    </row>
+    <row r="473" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K473"/>
-      <c r="N473" s="8"/>
-    </row>
-    <row r="474" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M473" s="8"/>
+    </row>
+    <row r="474" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K474"/>
-      <c r="N474" s="8"/>
-    </row>
-    <row r="475" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M474" s="8"/>
+    </row>
+    <row r="475" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K475"/>
-      <c r="N475" s="8"/>
-    </row>
-    <row r="476" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M475" s="8"/>
+    </row>
+    <row r="476" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K476"/>
-      <c r="N476" s="8"/>
-    </row>
-    <row r="477" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M476" s="8"/>
+    </row>
+    <row r="477" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K477"/>
-      <c r="N477" s="8"/>
-    </row>
-    <row r="478" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M477" s="8"/>
+    </row>
+    <row r="478" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K478"/>
-      <c r="N478" s="8"/>
-    </row>
-    <row r="479" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M478" s="8"/>
+    </row>
+    <row r="479" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K479"/>
-      <c r="N479" s="8"/>
-    </row>
-    <row r="480" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M479" s="8"/>
+    </row>
+    <row r="480" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K480"/>
-      <c r="N480" s="8"/>
-    </row>
-    <row r="481" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M480" s="8"/>
+    </row>
+    <row r="481" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K481"/>
-      <c r="N481" s="8"/>
-    </row>
-    <row r="482" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M481" s="8"/>
+    </row>
+    <row r="482" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K482"/>
-      <c r="N482" s="8"/>
-    </row>
-    <row r="483" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M482" s="8"/>
+    </row>
+    <row r="483" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K483"/>
-      <c r="N483" s="8"/>
-    </row>
-    <row r="484" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M483" s="8"/>
+    </row>
+    <row r="484" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K484"/>
-      <c r="N484" s="8"/>
-    </row>
-    <row r="485" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M484" s="8"/>
+    </row>
+    <row r="485" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K485"/>
-      <c r="N485" s="8"/>
-    </row>
-    <row r="486" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M485" s="8"/>
+    </row>
+    <row r="486" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K486"/>
-      <c r="N486" s="8"/>
-    </row>
-    <row r="487" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M486" s="8"/>
+    </row>
+    <row r="487" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K487"/>
-      <c r="N487" s="8"/>
-    </row>
-    <row r="488" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M487" s="8"/>
+    </row>
+    <row r="488" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K488"/>
-      <c r="N488" s="8"/>
-    </row>
-    <row r="489" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M488" s="8"/>
+    </row>
+    <row r="489" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K489"/>
-      <c r="N489" s="8"/>
-    </row>
-    <row r="490" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M489" s="8"/>
+    </row>
+    <row r="490" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K490"/>
-      <c r="N490" s="8"/>
-    </row>
-    <row r="491" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M490" s="8"/>
+    </row>
+    <row r="491" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K491"/>
-      <c r="N491" s="8"/>
-    </row>
-    <row r="492" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M491" s="8"/>
+    </row>
+    <row r="492" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K492"/>
-      <c r="N492" s="8"/>
-    </row>
-    <row r="493" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M492" s="8"/>
+    </row>
+    <row r="493" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K493"/>
-      <c r="N493" s="8"/>
-    </row>
-    <row r="494" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M493" s="8"/>
+    </row>
+    <row r="494" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K494"/>
-      <c r="N494" s="8"/>
-    </row>
-    <row r="495" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M494" s="8"/>
+    </row>
+    <row r="495" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K495"/>
-      <c r="N495" s="8"/>
-    </row>
-    <row r="496" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M495" s="8"/>
+    </row>
+    <row r="496" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K496"/>
-      <c r="N496" s="8"/>
-    </row>
-    <row r="497" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M496" s="8"/>
+    </row>
+    <row r="497" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K497"/>
-      <c r="N497" s="8"/>
-    </row>
-    <row r="498" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M497" s="8"/>
+    </row>
+    <row r="498" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K498"/>
-      <c r="N498" s="8"/>
-    </row>
-    <row r="499" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M498" s="8"/>
+    </row>
+    <row r="499" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K499"/>
-      <c r="N499" s="8"/>
-    </row>
-    <row r="500" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M499" s="8"/>
+    </row>
+    <row r="500" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K500"/>
-      <c r="N500" s="8"/>
-    </row>
-    <row r="501" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M500" s="8"/>
+    </row>
+    <row r="501" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K501"/>
-      <c r="N501" s="8"/>
-    </row>
-    <row r="502" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M501" s="8"/>
+    </row>
+    <row r="502" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K502"/>
-      <c r="N502" s="8"/>
-    </row>
-    <row r="503" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M502" s="8"/>
+    </row>
+    <row r="503" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K503"/>
-      <c r="N503" s="8"/>
-    </row>
-    <row r="504" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M503" s="8"/>
+    </row>
+    <row r="504" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K504"/>
-      <c r="N504" s="8"/>
-    </row>
-    <row r="505" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M504" s="8"/>
+    </row>
+    <row r="505" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K505"/>
-      <c r="N505" s="8"/>
-    </row>
-    <row r="506" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M505" s="8"/>
+    </row>
+    <row r="506" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K506"/>
-      <c r="N506" s="8"/>
-    </row>
-    <row r="507" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M506" s="8"/>
+    </row>
+    <row r="507" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K507"/>
-      <c r="N507" s="8"/>
-    </row>
-    <row r="508" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M507" s="8"/>
+    </row>
+    <row r="508" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K508"/>
-      <c r="N508" s="8"/>
-    </row>
-    <row r="509" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M508" s="8"/>
+    </row>
+    <row r="509" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K509"/>
-      <c r="N509" s="8"/>
-    </row>
-    <row r="510" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M509" s="8"/>
+    </row>
+    <row r="510" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K510"/>
-      <c r="N510" s="8"/>
-    </row>
-    <row r="511" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M510" s="8"/>
+    </row>
+    <row r="511" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K511"/>
-      <c r="N511" s="8"/>
-    </row>
-    <row r="512" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M511" s="8"/>
+    </row>
+    <row r="512" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K512"/>
-      <c r="N512" s="8"/>
-    </row>
-    <row r="513" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M512" s="8"/>
+    </row>
+    <row r="513" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K513"/>
-      <c r="N513" s="8"/>
-    </row>
-    <row r="514" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M513" s="8"/>
+    </row>
+    <row r="514" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K514"/>
-      <c r="N514" s="8"/>
-    </row>
-    <row r="515" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M514" s="8"/>
+    </row>
+    <row r="515" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K515"/>
-      <c r="N515" s="8"/>
-    </row>
-    <row r="516" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M515" s="8"/>
+    </row>
+    <row r="516" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K516"/>
-      <c r="N516" s="8"/>
-    </row>
-    <row r="517" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M516" s="8"/>
+    </row>
+    <row r="517" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K517"/>
-      <c r="N517" s="8"/>
-    </row>
-    <row r="518" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M517" s="8"/>
+    </row>
+    <row r="518" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K518"/>
-      <c r="N518" s="8"/>
-    </row>
-    <row r="519" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M518" s="8"/>
+    </row>
+    <row r="519" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K519"/>
-      <c r="N519" s="8"/>
-    </row>
-    <row r="520" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M519" s="8"/>
+    </row>
+    <row r="520" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K520"/>
-      <c r="N520" s="8"/>
-    </row>
-    <row r="521" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M520" s="8"/>
+    </row>
+    <row r="521" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K521"/>
-      <c r="N521" s="8"/>
-    </row>
-    <row r="522" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M521" s="8"/>
+    </row>
+    <row r="522" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K522"/>
-      <c r="N522" s="8"/>
-    </row>
-    <row r="523" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M522" s="8"/>
+    </row>
+    <row r="523" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K523"/>
-      <c r="N523" s="8"/>
-    </row>
-    <row r="524" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M523" s="8"/>
+    </row>
+    <row r="524" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K524"/>
-      <c r="N524" s="8"/>
-    </row>
-    <row r="525" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M524" s="8"/>
+    </row>
+    <row r="525" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K525"/>
-      <c r="N525" s="8"/>
-    </row>
-    <row r="526" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M525" s="8"/>
+    </row>
+    <row r="526" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K526"/>
-      <c r="N526" s="8"/>
-    </row>
-    <row r="527" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M526" s="8"/>
+    </row>
+    <row r="527" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K527"/>
-      <c r="N527" s="8"/>
-    </row>
-    <row r="528" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M527" s="8"/>
+    </row>
+    <row r="528" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K528"/>
-      <c r="N528" s="8"/>
-    </row>
-    <row r="529" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M528" s="8"/>
+    </row>
+    <row r="529" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K529"/>
-      <c r="N529" s="8"/>
-    </row>
-    <row r="530" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M529" s="8"/>
+    </row>
+    <row r="530" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K530"/>
-      <c r="N530" s="8"/>
-    </row>
-    <row r="531" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M530" s="8"/>
+    </row>
+    <row r="531" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K531"/>
-      <c r="N531" s="8"/>
-    </row>
-    <row r="532" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M531" s="8"/>
+    </row>
+    <row r="532" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K532"/>
-      <c r="N532" s="8"/>
-    </row>
-    <row r="533" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M532" s="8"/>
+    </row>
+    <row r="533" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K533"/>
-      <c r="N533" s="8"/>
-    </row>
-    <row r="534" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M533" s="8"/>
+    </row>
+    <row r="534" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K534"/>
-      <c r="N534" s="8"/>
-    </row>
-    <row r="535" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M534" s="8"/>
+    </row>
+    <row r="535" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K535"/>
-      <c r="N535" s="8"/>
-    </row>
-    <row r="536" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M535" s="8"/>
+    </row>
+    <row r="536" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K536"/>
-      <c r="N536" s="8"/>
-    </row>
-    <row r="537" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M536" s="8"/>
+    </row>
+    <row r="537" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K537"/>
-      <c r="N537" s="8"/>
-    </row>
-    <row r="538" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M537" s="8"/>
+    </row>
+    <row r="538" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K538"/>
-      <c r="N538" s="8"/>
-    </row>
-    <row r="539" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M538" s="8"/>
+    </row>
+    <row r="539" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K539"/>
-      <c r="N539" s="8"/>
-    </row>
-    <row r="540" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M539" s="8"/>
+    </row>
+    <row r="540" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K540"/>
-      <c r="N540" s="8"/>
-    </row>
-    <row r="541" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M540" s="8"/>
+    </row>
+    <row r="541" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K541"/>
-      <c r="N541" s="8"/>
-    </row>
-    <row r="542" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M541" s="8"/>
+    </row>
+    <row r="542" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K542"/>
-      <c r="N542" s="8"/>
-    </row>
-    <row r="543" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M542" s="8"/>
+    </row>
+    <row r="543" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K543"/>
-      <c r="N543" s="8"/>
-    </row>
-    <row r="544" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M543" s="8"/>
+    </row>
+    <row r="544" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K544"/>
-      <c r="N544" s="8"/>
-    </row>
-    <row r="545" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M544" s="8"/>
+    </row>
+    <row r="545" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K545"/>
-      <c r="N545" s="8"/>
-    </row>
-    <row r="546" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M545" s="8"/>
+    </row>
+    <row r="546" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K546"/>
-      <c r="N546" s="8"/>
-    </row>
-    <row r="547" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M546" s="8"/>
+    </row>
+    <row r="547" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K547"/>
-      <c r="N547" s="8"/>
-    </row>
-    <row r="548" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M547" s="8"/>
+    </row>
+    <row r="548" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K548"/>
-      <c r="N548" s="8"/>
-    </row>
-    <row r="549" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M548" s="8"/>
+    </row>
+    <row r="549" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K549"/>
-      <c r="N549" s="8"/>
-    </row>
-    <row r="550" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M549" s="8"/>
+    </row>
+    <row r="550" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K550"/>
-      <c r="N550" s="8"/>
-    </row>
-    <row r="551" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M550" s="8"/>
+    </row>
+    <row r="551" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K551"/>
-      <c r="N551" s="8"/>
-    </row>
-    <row r="552" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M551" s="8"/>
+    </row>
+    <row r="552" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K552"/>
-      <c r="N552" s="8"/>
-    </row>
-    <row r="553" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M552" s="8"/>
+    </row>
+    <row r="553" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K553"/>
-      <c r="N553" s="8"/>
-    </row>
-    <row r="554" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M553" s="8"/>
+    </row>
+    <row r="554" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K554"/>
-      <c r="N554" s="8"/>
-    </row>
-    <row r="555" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M554" s="8"/>
+    </row>
+    <row r="555" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K555"/>
-      <c r="N555" s="8"/>
-    </row>
-    <row r="556" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M555" s="8"/>
+    </row>
+    <row r="556" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K556"/>
-      <c r="N556" s="8"/>
-    </row>
-    <row r="557" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M556" s="8"/>
+    </row>
+    <row r="557" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K557"/>
-      <c r="N557" s="8"/>
-    </row>
-    <row r="558" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M557" s="8"/>
+    </row>
+    <row r="558" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K558"/>
-      <c r="N558" s="8"/>
-    </row>
-    <row r="559" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M558" s="8"/>
+    </row>
+    <row r="559" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K559"/>
-      <c r="N559" s="8"/>
-    </row>
-    <row r="560" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M559" s="8"/>
+    </row>
+    <row r="560" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K560"/>
-      <c r="N560" s="8"/>
-    </row>
-    <row r="561" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M560" s="8"/>
+    </row>
+    <row r="561" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K561"/>
-      <c r="N561" s="8"/>
-    </row>
-    <row r="562" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M561" s="8"/>
+    </row>
+    <row r="562" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K562"/>
-      <c r="N562" s="8"/>
-    </row>
-    <row r="563" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M562" s="8"/>
+    </row>
+    <row r="563" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K563"/>
-      <c r="N563" s="8"/>
-    </row>
-    <row r="564" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M563" s="8"/>
+    </row>
+    <row r="564" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K564"/>
-      <c r="N564" s="8"/>
-    </row>
-    <row r="565" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M564" s="8"/>
+    </row>
+    <row r="565" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K565"/>
-      <c r="N565" s="8"/>
-    </row>
-    <row r="566" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M565" s="8"/>
+    </row>
+    <row r="566" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K566"/>
-      <c r="N566" s="8"/>
-    </row>
-    <row r="567" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M566" s="8"/>
+    </row>
+    <row r="567" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K567"/>
-      <c r="N567" s="8"/>
-    </row>
-    <row r="568" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M567" s="8"/>
+    </row>
+    <row r="568" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K568"/>
-      <c r="N568" s="8"/>
-    </row>
-    <row r="569" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M568" s="8"/>
+    </row>
+    <row r="569" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K569"/>
-      <c r="N569" s="8"/>
-    </row>
-    <row r="570" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M569" s="8"/>
+    </row>
+    <row r="570" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K570"/>
-      <c r="N570" s="8"/>
-    </row>
-    <row r="571" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M570" s="8"/>
+    </row>
+    <row r="571" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K571"/>
-      <c r="N571" s="8"/>
-    </row>
-    <row r="572" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M571" s="8"/>
+    </row>
+    <row r="572" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K572"/>
-      <c r="N572" s="8"/>
-    </row>
-    <row r="573" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M572" s="8"/>
+    </row>
+    <row r="573" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K573"/>
-      <c r="N573" s="8"/>
-    </row>
-    <row r="574" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M573" s="8"/>
+    </row>
+    <row r="574" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K574"/>
-      <c r="N574" s="8"/>
-    </row>
-    <row r="575" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M574" s="8"/>
+    </row>
+    <row r="575" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K575"/>
-      <c r="N575" s="8"/>
-    </row>
-    <row r="576" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M575" s="8"/>
+    </row>
+    <row r="576" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K576"/>
-      <c r="N576" s="8"/>
-    </row>
-    <row r="577" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M576" s="8"/>
+    </row>
+    <row r="577" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K577"/>
-      <c r="N577" s="8"/>
-    </row>
-    <row r="578" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M577" s="8"/>
+    </row>
+    <row r="578" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K578"/>
-      <c r="N578" s="8"/>
-    </row>
-    <row r="579" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M578" s="8"/>
+    </row>
+    <row r="579" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K579"/>
-      <c r="N579" s="8"/>
-    </row>
-    <row r="580" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M579" s="8"/>
+    </row>
+    <row r="580" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K580"/>
-      <c r="N580" s="8"/>
-    </row>
-    <row r="581" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M580" s="8"/>
+    </row>
+    <row r="581" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K581"/>
-      <c r="N581" s="8"/>
-    </row>
-    <row r="582" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M581" s="8"/>
+    </row>
+    <row r="582" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K582"/>
-      <c r="N582" s="8"/>
-    </row>
-    <row r="583" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M582" s="8"/>
+    </row>
+    <row r="583" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K583"/>
-      <c r="N583" s="8"/>
-    </row>
-    <row r="584" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M583" s="8"/>
+    </row>
+    <row r="584" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K584"/>
-      <c r="N584" s="8"/>
-    </row>
-    <row r="585" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M584" s="8"/>
+    </row>
+    <row r="585" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K585"/>
-      <c r="N585" s="8"/>
-    </row>
-    <row r="586" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M585" s="8"/>
+    </row>
+    <row r="586" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K586"/>
-      <c r="N586" s="8"/>
-    </row>
-    <row r="587" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M586" s="8"/>
+    </row>
+    <row r="587" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K587"/>
-      <c r="N587" s="8"/>
-    </row>
-    <row r="588" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M587" s="8"/>
+    </row>
+    <row r="588" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K588"/>
-      <c r="N588" s="8"/>
-    </row>
-    <row r="589" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M588" s="8"/>
+    </row>
+    <row r="589" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K589"/>
-      <c r="N589" s="8"/>
-    </row>
-    <row r="590" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M589" s="8"/>
+    </row>
+    <row r="590" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K590"/>
-      <c r="N590" s="8"/>
-    </row>
-    <row r="591" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M590" s="8"/>
+    </row>
+    <row r="591" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K591"/>
-      <c r="N591" s="8"/>
-    </row>
-    <row r="592" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M591" s="8"/>
+    </row>
+    <row r="592" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K592"/>
-      <c r="N592" s="8"/>
-    </row>
-    <row r="593" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M592" s="8"/>
+    </row>
+    <row r="593" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K593"/>
-      <c r="N593" s="8"/>
-    </row>
-    <row r="594" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M593" s="8"/>
+    </row>
+    <row r="594" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K594"/>
-      <c r="N594" s="8"/>
-    </row>
-    <row r="595" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M594" s="8"/>
+    </row>
+    <row r="595" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K595"/>
-      <c r="N595" s="8"/>
-    </row>
-    <row r="596" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M595" s="8"/>
+    </row>
+    <row r="596" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K596"/>
-      <c r="N596" s="8"/>
-    </row>
-    <row r="597" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M596" s="8"/>
+    </row>
+    <row r="597" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K597"/>
-      <c r="N597" s="8"/>
-    </row>
-    <row r="598" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M597" s="8"/>
+    </row>
+    <row r="598" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K598"/>
-      <c r="N598" s="8"/>
-    </row>
-    <row r="599" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M598" s="8"/>
+    </row>
+    <row r="599" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K599"/>
-      <c r="N599" s="8"/>
-    </row>
-    <row r="600" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M599" s="8"/>
+    </row>
+    <row r="600" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K600"/>
-      <c r="N600" s="8"/>
-    </row>
-    <row r="601" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M600" s="8"/>
+    </row>
+    <row r="601" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K601"/>
-      <c r="N601" s="8"/>
-    </row>
-    <row r="602" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M601" s="8"/>
+    </row>
+    <row r="602" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K602"/>
-      <c r="N602" s="8"/>
-    </row>
-    <row r="603" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M602" s="8"/>
+    </row>
+    <row r="603" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K603"/>
-      <c r="N603" s="8"/>
-    </row>
-    <row r="604" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M603" s="8"/>
+    </row>
+    <row r="604" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K604"/>
-      <c r="N604" s="8"/>
-    </row>
-    <row r="605" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M604" s="8"/>
+    </row>
+    <row r="605" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K605"/>
-      <c r="N605" s="8"/>
-    </row>
-    <row r="606" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M605" s="8"/>
+    </row>
+    <row r="606" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K606"/>
-      <c r="N606" s="8"/>
-    </row>
-    <row r="607" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M606" s="8"/>
+    </row>
+    <row r="607" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K607"/>
-      <c r="N607" s="8"/>
-    </row>
-    <row r="608" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M607" s="8"/>
+    </row>
+    <row r="608" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K608"/>
-      <c r="N608" s="8"/>
-    </row>
-    <row r="609" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M608" s="8"/>
+    </row>
+    <row r="609" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K609"/>
-      <c r="N609" s="8"/>
-    </row>
-    <row r="610" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M609" s="8"/>
+    </row>
+    <row r="610" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K610"/>
-      <c r="N610" s="8"/>
-    </row>
-    <row r="611" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M610" s="8"/>
+    </row>
+    <row r="611" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K611"/>
-      <c r="N611" s="8"/>
-    </row>
-    <row r="612" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M611" s="8"/>
+    </row>
+    <row r="612" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K612"/>
-      <c r="N612" s="8"/>
-    </row>
-    <row r="613" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M612" s="8"/>
+    </row>
+    <row r="613" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K613"/>
-      <c r="N613" s="8"/>
-    </row>
-    <row r="614" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M613" s="8"/>
+    </row>
+    <row r="614" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K614"/>
-      <c r="N614" s="8"/>
-    </row>
-    <row r="615" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M614" s="8"/>
+    </row>
+    <row r="615" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K615"/>
-      <c r="N615" s="8"/>
-    </row>
-    <row r="616" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M615" s="8"/>
+    </row>
+    <row r="616" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K616"/>
-      <c r="N616" s="8"/>
-    </row>
-    <row r="617" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M616" s="8"/>
+    </row>
+    <row r="617" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K617"/>
-      <c r="N617" s="8"/>
-    </row>
-    <row r="618" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M617" s="8"/>
+    </row>
+    <row r="618" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K618"/>
-      <c r="N618" s="8"/>
-    </row>
-    <row r="619" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M618" s="8"/>
+    </row>
+    <row r="619" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K619"/>
-      <c r="N619" s="8"/>
-    </row>
-    <row r="620" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M619" s="8"/>
+    </row>
+    <row r="620" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K620"/>
-      <c r="N620" s="8"/>
-    </row>
-    <row r="621" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M620" s="8"/>
+    </row>
+    <row r="621" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K621"/>
-      <c r="N621" s="8"/>
-    </row>
-    <row r="622" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M621" s="8"/>
+    </row>
+    <row r="622" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K622"/>
-      <c r="N622" s="8"/>
-    </row>
-    <row r="623" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M622" s="8"/>
+    </row>
+    <row r="623" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K623"/>
-      <c r="N623" s="8"/>
-    </row>
-    <row r="624" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M623" s="8"/>
+    </row>
+    <row r="624" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K624"/>
-      <c r="N624" s="8"/>
-    </row>
-    <row r="625" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M624" s="8"/>
+    </row>
+    <row r="625" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K625"/>
-      <c r="N625" s="8"/>
-    </row>
-    <row r="626" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M625" s="8"/>
+    </row>
+    <row r="626" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K626"/>
-      <c r="N626" s="8"/>
-    </row>
-    <row r="627" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M626" s="8"/>
+    </row>
+    <row r="627" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K627"/>
-      <c r="N627" s="8"/>
-    </row>
-    <row r="628" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M627" s="8"/>
+    </row>
+    <row r="628" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K628"/>
-      <c r="N628" s="8"/>
-    </row>
-    <row r="629" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M628" s="8"/>
+    </row>
+    <row r="629" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K629"/>
-      <c r="N629" s="8"/>
-    </row>
-    <row r="630" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M629" s="8"/>
+    </row>
+    <row r="630" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K630"/>
-      <c r="N630" s="8"/>
-    </row>
-    <row r="631" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M630" s="8"/>
+    </row>
+    <row r="631" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K631"/>
-      <c r="N631" s="8"/>
-    </row>
-    <row r="632" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M631" s="8"/>
+    </row>
+    <row r="632" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K632"/>
-      <c r="N632" s="8"/>
-    </row>
-    <row r="633" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M632" s="8"/>
+    </row>
+    <row r="633" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K633"/>
-      <c r="N633" s="8"/>
-    </row>
-    <row r="634" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M633" s="8"/>
+    </row>
+    <row r="634" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K634"/>
-      <c r="N634" s="8"/>
-    </row>
-    <row r="635" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M634" s="8"/>
+    </row>
+    <row r="635" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K635"/>
-      <c r="N635" s="8"/>
-    </row>
-    <row r="636" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M635" s="8"/>
+    </row>
+    <row r="636" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K636"/>
-      <c r="N636" s="8"/>
-    </row>
-    <row r="637" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M636" s="8"/>
+    </row>
+    <row r="637" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K637"/>
     </row>
-    <row r="638" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="638" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K638"/>
     </row>
-    <row r="639" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="639" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K639"/>
     </row>
-    <row r="640" spans="11:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="640" spans="11:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K640"/>
     </row>
     <row r="641" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5695,22 +5784,22 @@
     <row r="992" spans="11:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K992"/>
     </row>
-    <row r="993" spans="5:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="993" spans="5:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K993"/>
     </row>
-    <row r="994" spans="5:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="994" spans="5:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K994"/>
     </row>
-    <row r="995" spans="5:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="995" spans="5:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K995"/>
     </row>
-    <row r="996" spans="5:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="5:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E996" s="3"/>
       <c r="H996" s="3"/>
       <c r="I996" s="3"/>
       <c r="J996" s="3"/>
       <c r="K996" s="3"/>
-      <c r="L996" s="3"/>
+      <c r="M996" s="3"/>
       <c r="N996" s="3"/>
       <c r="O996" s="3"/>
       <c r="P996" s="3"/>
@@ -5719,16 +5808,15 @@
       <c r="S996" s="3"/>
       <c r="T996" s="3"/>
       <c r="U996" s="3"/>
-      <c r="V996" s="3"/>
-    </row>
-    <row r="998" spans="5:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="998" spans="5:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K998" s="6"/>
+      <c r="M998" s="3"/>
       <c r="N998" s="3"/>
       <c r="O998" s="3"/>
       <c r="P998" s="3"/>
-      <c r="Q998" s="3"/>
-    </row>
-    <row r="1000" spans="5:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1000" spans="5:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E1000" s="3"/>
       <c r="F1000" s="3"/>
       <c r="G1000" s="3"/>

--- a/rasa/data/AIYAIntentTemplate.xlsx
+++ b/rasa/data/AIYAIntentTemplate.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="115">
   <si>
     <t>ขอบคุณ</t>
   </si>
@@ -89,9 +89,6 @@
     <t>ช่วยอธิบายความหมายของสมุนไพรหน่อย</t>
   </si>
   <si>
-    <t>ทำไรได้บ้าง</t>
-  </si>
-  <si>
     <t>บอทชื่อไร</t>
   </si>
   <si>
@@ -104,21 +101,12 @@
     <t>อยากรู้จักสมุนไพร</t>
   </si>
   <si>
-    <t>ทำไรได้เนี้ย</t>
-  </si>
-  <si>
     <t>ชื่ออะไร</t>
   </si>
   <si>
     <t>ช่วยอธิบายเกี่ยวกับสมุนไพรหน่อย</t>
   </si>
   <si>
-    <t>ทำไรมั่งวันๆ</t>
-  </si>
-  <si>
-    <t>มีประโยชน์อะไร</t>
-  </si>
-  <si>
     <t>hello</t>
   </si>
   <si>
@@ -357,6 +345,33 @@
   </si>
   <si>
     <t>ไม่มีรูปสมุนไพร</t>
+  </si>
+  <si>
+    <t>ขอบคุณนะ</t>
+  </si>
+  <si>
+    <t>ลูกไพรคืออะไร</t>
+  </si>
+  <si>
+    <t>บอทคืออะไร</t>
+  </si>
+  <si>
+    <t>หน้าที่ของบอท</t>
+  </si>
+  <si>
+    <t>แนะนำบอท</t>
+  </si>
+  <si>
+    <t>แนะนำตัวหน่อย</t>
+  </si>
+  <si>
+    <t>แนะนำบอทหน่อย</t>
+  </si>
+  <si>
+    <t>อยากรู้จักลูกไพร</t>
+  </si>
+  <si>
+    <t>ลูกไพรคือใคร</t>
   </si>
 </sst>
 </file>
@@ -883,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -930,72 +945,72 @@
   <sheetData>
     <row r="1" spans="1:52" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="L1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="M1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="B2" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:52" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
@@ -1009,43 +1024,43 @@
       <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" t="s">
         <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
       </c>
       <c r="M2" t="s">
         <v>5</v>
       </c>
       <c r="N2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" t="s">
         <v>93</v>
       </c>
-      <c r="O2" t="s">
-        <v>95</v>
-      </c>
-      <c r="P2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:52" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:52" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
@@ -1059,43 +1074,43 @@
       <c r="J3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L3" t="s">
         <v>22</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
       </c>
       <c r="M3" t="s">
         <v>6</v>
       </c>
       <c r="N3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" t="s">
+        <v>92</v>
+      </c>
+      <c r="P3" t="s">
         <v>94</v>
       </c>
-      <c r="O3" t="s">
-        <v>96</v>
-      </c>
-      <c r="P3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:52" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:52" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>
@@ -1107,45 +1122,45 @@
         <v>13</v>
       </c>
       <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L4" t="s">
         <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
       </c>
       <c r="M4" t="s">
         <v>7</v>
       </c>
       <c r="N4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:52" ht="16" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
@@ -1157,314 +1172,418 @@
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M5" t="s">
         <v>8</v>
       </c>
+      <c r="N5" t="s">
+        <v>89</v>
+      </c>
       <c r="O5" t="s">
-        <v>103</v>
+        <v>99</v>
+      </c>
+      <c r="P5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:52" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="M6" t="s">
         <v>9</v>
       </c>
+      <c r="N6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="7" spans="1:52" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M7" t="s">
         <v>10</v>
       </c>
+      <c r="N7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P7" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="8" spans="1:52" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
       <c r="M8" t="s">
         <v>11</v>
       </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>96</v>
+      </c>
+      <c r="P8" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="9" spans="1:52" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="L9" t="s">
+        <v>107</v>
+      </c>
       <c r="M9" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="8"/>
+      <c r="N9" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P9" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="10" spans="1:52" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" t="s">
+        <v>91</v>
+      </c>
+      <c r="P10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
         <v>105</v>
       </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="M10" t="s">
+      <c r="D11" t="s">
         <v>101</v>
       </c>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-    </row>
-    <row r="11" spans="1:52" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11"/>
+      <c r="N11" t="s">
+        <v>89</v>
+      </c>
+      <c r="O11" t="s">
+        <v>92</v>
+      </c>
+      <c r="P11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
         <v>105</v>
       </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" t="s">
-        <v>52</v>
-      </c>
-      <c r="M11"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-    </row>
-    <row r="12" spans="1:52" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" t="s">
-        <v>109</v>
-      </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
         <v>38</v>
       </c>
-      <c r="F12" t="s">
-        <v>42</v>
-      </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" t="s">
+        <v>21</v>
       </c>
       <c r="M12"/>
       <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-    </row>
-    <row r="13" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
         <v>39</v>
       </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" t="s">
+        <v>21</v>
       </c>
       <c r="M13"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
         <v>40</v>
       </c>
-      <c r="F14" t="s">
-        <v>44</v>
-      </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" t="s">
+        <v>110</v>
       </c>
       <c r="M14"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="1:52" ht="13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:52" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
         <v>4</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" t="s">
+        <v>111</v>
       </c>
       <c r="M15"/>
       <c r="O15" s="8"/>
@@ -1482,81 +1601,99 @@
       <c r="AY15" s="1"/>
       <c r="AZ15" s="1"/>
     </row>
-    <row r="16" spans="1:52" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:52" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>52</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" t="s">
+        <v>112</v>
       </c>
       <c r="M16"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
     </row>
-    <row r="17" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:40" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s">
         <v>1</v>
       </c>
       <c r="H17" s="1"/>
+      <c r="I17" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="J17" s="1"/>
+      <c r="L17" t="s">
+        <v>113</v>
+      </c>
       <c r="M17"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
     </row>
-    <row r="18" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:40" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s">
         <v>3</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" t="s">
+        <v>114</v>
       </c>
       <c r="M18"/>
       <c r="O18" s="8"/>
@@ -1564,28 +1701,30 @@
     </row>
     <row r="19" spans="1:40" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="I19" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="M19" s="3"/>
@@ -1606,314 +1745,350 @@
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
     </row>
-    <row r="20" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:40" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
         <v>1</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="M20"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
     </row>
-    <row r="21" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:40" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
         <v>4</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="M21"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
     </row>
-    <row r="22" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:40" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
         <v>3</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="M22"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
     </row>
-    <row r="23" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:40" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s">
         <v>1</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="M23"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
     </row>
-    <row r="24" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:40" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D24" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s">
         <v>14</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="M24"/>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
     </row>
-    <row r="25" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:40" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s">
         <v>15</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="M25"/>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
     </row>
-    <row r="26" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:40" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D26" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="M26"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
     </row>
-    <row r="27" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:40" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="M27"/>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
     </row>
-    <row r="28" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:40" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s">
-        <v>51</v>
+        <v>47</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="M28"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
     </row>
-    <row r="29" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:40" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="M29"/>
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
       <c r="AN29" s="1"/>
     </row>
-    <row r="30" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:40" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="M30"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
     </row>
-    <row r="31" spans="1:40" ht="13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:40" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="M31"/>
       <c r="O31" s="8"/>
@@ -1921,19 +2096,19 @@
     </row>
     <row r="32" spans="1:40" ht="13" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32"/>
@@ -1942,16 +2117,16 @@
     </row>
     <row r="33" spans="3:44" ht="13" x14ac:dyDescent="0.15">
       <c r="C33" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s">
         <v>4</v>
@@ -1962,19 +2137,19 @@
     </row>
     <row r="34" spans="3:44" ht="13" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M34"/>
       <c r="O34" s="8"/>
@@ -1983,16 +2158,16 @@
     </row>
     <row r="35" spans="3:44" ht="13" x14ac:dyDescent="0.15">
       <c r="C35" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s">
         <v>1</v>
@@ -2004,16 +2179,16 @@
     </row>
     <row r="36" spans="3:44" ht="13" x14ac:dyDescent="0.15">
       <c r="C36" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D36" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
         <v>3</v>
@@ -2025,16 +2200,16 @@
     </row>
     <row r="37" spans="3:44" ht="17" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D37" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>1</v>
@@ -2046,16 +2221,16 @@
     </row>
     <row r="38" spans="3:44" ht="13" x14ac:dyDescent="0.15">
       <c r="C38" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s">
         <v>1</v>
@@ -2067,10 +2242,10 @@
     </row>
     <row r="39" spans="3:44" ht="13" x14ac:dyDescent="0.15">
       <c r="E39" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
         <v>4</v>
@@ -2082,10 +2257,10 @@
     </row>
     <row r="40" spans="3:44" ht="13" x14ac:dyDescent="0.15">
       <c r="E40" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s">
         <v>3</v>
@@ -2097,10 +2272,10 @@
     </row>
     <row r="41" spans="3:44" ht="13" x14ac:dyDescent="0.15">
       <c r="E41" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
         <v>1</v>
@@ -2112,10 +2287,10 @@
     </row>
     <row r="42" spans="3:44" ht="13" x14ac:dyDescent="0.15">
       <c r="E42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
         <v>14</v>
@@ -2126,10 +2301,10 @@
     </row>
     <row r="43" spans="3:44" ht="13" x14ac:dyDescent="0.15">
       <c r="E43" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F43" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G43" t="s">
         <v>1</v>
@@ -2140,10 +2315,10 @@
     </row>
     <row r="44" spans="3:44" ht="13" x14ac:dyDescent="0.15">
       <c r="E44" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F44" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G44" t="s">
         <v>4</v>
@@ -2154,10 +2329,10 @@
     </row>
     <row r="45" spans="3:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E45" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F45" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G45" t="s">
         <v>3</v>
@@ -2168,10 +2343,10 @@
     </row>
     <row r="46" spans="3:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E46" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F46" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G46" t="s">
         <v>1</v>
@@ -2182,10 +2357,10 @@
     </row>
     <row r="47" spans="3:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E47" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F47" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G47" t="s">
         <v>14</v>
@@ -2196,10 +2371,10 @@
     </row>
     <row r="48" spans="3:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E48" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F48" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G48" t="s">
         <v>15</v>
@@ -2210,10 +2385,10 @@
     </row>
     <row r="49" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F49" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M49"/>
       <c r="O49" s="8"/>
@@ -2221,10 +2396,10 @@
     </row>
     <row r="50" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F50" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M50"/>
       <c r="O50" s="8"/>
@@ -2232,10 +2407,10 @@
     </row>
     <row r="51" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F51" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M51"/>
       <c r="O51" s="8"/>
@@ -2243,7 +2418,7 @@
     </row>
     <row r="52" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G52" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M52"/>
       <c r="O52" s="8"/>
@@ -2251,7 +2426,7 @@
     </row>
     <row r="53" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G53" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M53"/>
       <c r="O53" s="8"/>
@@ -2259,7 +2434,7 @@
     </row>
     <row r="54" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G54" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M54"/>
       <c r="O54" s="8"/>
@@ -2267,7 +2442,7 @@
     </row>
     <row r="55" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G55" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M55"/>
       <c r="O55" s="8"/>
@@ -2283,7 +2458,7 @@
     </row>
     <row r="57" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G57" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M57"/>
       <c r="O57" s="8"/>

--- a/rasa/data/AIYAIntentTemplate.xlsx
+++ b/rasa/data/AIYAIntentTemplate.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="109">
   <si>
     <t>ขอบคุณ</t>
   </si>
@@ -92,9 +92,6 @@
     <t>บอทชื่อไร</t>
   </si>
   <si>
-    <t>บอททำไรได้บ้าง</t>
-  </si>
-  <si>
     <t>ชื่อไร</t>
   </si>
   <si>
@@ -357,21 +354,6 @@
   </si>
   <si>
     <t>หน้าที่ของบอท</t>
-  </si>
-  <si>
-    <t>แนะนำบอท</t>
-  </si>
-  <si>
-    <t>แนะนำตัวหน่อย</t>
-  </si>
-  <si>
-    <t>แนะนำบอทหน่อย</t>
-  </si>
-  <si>
-    <t>อยากรู้จักลูกไพร</t>
-  </si>
-  <si>
-    <t>ลูกไพรคือใคร</t>
   </si>
 </sst>
 </file>
@@ -898,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -945,72 +927,72 @@
   <sheetData>
     <row r="1" spans="1:52" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="N1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
         <v>68</v>
       </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
@@ -1025,7 +1007,7 @@
         <v>19</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -1034,33 +1016,33 @@
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:52" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
         <v>68</v>
       </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
@@ -1075,42 +1057,42 @@
         <v>18</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M3" t="s">
         <v>6</v>
       </c>
       <c r="N3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:52" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
         <v>68</v>
       </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>
@@ -1122,45 +1104,45 @@
         <v>13</v>
       </c>
       <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" t="s">
         <v>23</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L4" t="s">
-        <v>24</v>
       </c>
       <c r="M4" t="s">
         <v>7</v>
       </c>
       <c r="N4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:52" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
         <v>68</v>
       </c>
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
@@ -1172,272 +1154,298 @@
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M5" t="s">
         <v>8</v>
       </c>
       <c r="N5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:52" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
         <v>68</v>
       </c>
-      <c r="B6" t="s">
-        <v>69</v>
-      </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
       <c r="K6" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M6" t="s">
         <v>9</v>
       </c>
       <c r="N6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" t="s">
         <v>90</v>
       </c>
-      <c r="O6" t="s">
-        <v>91</v>
-      </c>
       <c r="P6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:52" ht="16" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
         <v>68</v>
       </c>
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="L7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M7" t="s">
         <v>10</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:52" ht="16" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
         <v>68</v>
       </c>
-      <c r="B8" t="s">
-        <v>69</v>
-      </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="L8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M8" t="s">
         <v>11</v>
       </c>
       <c r="N8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:52" ht="16" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
         <v>68</v>
       </c>
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M9" t="s">
         <v>12</v>
       </c>
       <c r="N9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:52" ht="16" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
         <v>68</v>
       </c>
-      <c r="B10" t="s">
-        <v>69</v>
-      </c>
       <c r="C10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
         <v>105</v>
-      </c>
-      <c r="D10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" t="s">
-        <v>106</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M10" t="s">
+        <v>96</v>
+      </c>
+      <c r="N10" t="s">
         <v>97</v>
       </c>
-      <c r="N10" t="s">
-        <v>98</v>
-      </c>
       <c r="O10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:52" ht="16" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
         <v>68</v>
       </c>
-      <c r="B11" t="s">
-        <v>69</v>
-      </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
         <v>17</v>
@@ -1445,146 +1453,162 @@
       <c r="I11" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="L11" t="s">
         <v>20</v>
       </c>
       <c r="M11"/>
       <c r="N11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O11" t="s">
+        <v>91</v>
+      </c>
+      <c r="P11" t="s">
         <v>92</v>
       </c>
-      <c r="P11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:52" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:52" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
         <v>68</v>
       </c>
-      <c r="B12" t="s">
-        <v>69</v>
-      </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="H12" t="s">
+        <v>0</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L12" t="s">
-        <v>21</v>
-      </c>
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="3"/>
       <c r="M12"/>
       <c r="O12" s="8"/>
       <c r="P12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
         <v>68</v>
       </c>
-      <c r="B13" t="s">
-        <v>69</v>
-      </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
         <v>102</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L13" t="s">
-        <v>21</v>
-      </c>
+      <c r="J13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="3"/>
       <c r="M13"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
     </row>
     <row r="14" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
         <v>68</v>
       </c>
-      <c r="B14" t="s">
-        <v>69</v>
-      </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
         <v>102</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="s">
-        <v>110</v>
-      </c>
+      <c r="K14" s="3"/>
       <c r="M14"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="1:52" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:52" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
         <v>68</v>
       </c>
-      <c r="B15" t="s">
-        <v>69</v>
-      </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
         <v>102</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
         <v>4</v>
       </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
       <c r="I15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L15" t="s">
-        <v>111</v>
-      </c>
+      <c r="K15" s="3"/>
       <c r="M15"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
@@ -1601,131 +1625,116 @@
       <c r="AY15" s="1"/>
       <c r="AZ15" s="1"/>
     </row>
-    <row r="16" spans="1:52" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:52" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
         <v>68</v>
       </c>
-      <c r="B16" t="s">
-        <v>69</v>
-      </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D16" t="s">
         <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" t="s">
-        <v>112</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="K16" s="3"/>
       <c r="M16"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
     </row>
-    <row r="17" spans="1:40" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
         <v>68</v>
       </c>
-      <c r="B17" t="s">
-        <v>69</v>
-      </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
         <v>102</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="1"/>
-      <c r="L17" t="s">
-        <v>113</v>
-      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="K17" s="3"/>
       <c r="M17"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
     </row>
-    <row r="18" spans="1:40" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
         <v>68</v>
       </c>
-      <c r="B18" t="s">
-        <v>69</v>
-      </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G18" t="s">
         <v>3</v>
       </c>
-      <c r="I18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" t="s">
-        <v>114</v>
-      </c>
+      <c r="H18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="K18" s="3"/>
       <c r="M18"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
     </row>
     <row r="19" spans="1:40" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" t="s">
-        <v>105</v>
-      </c>
       <c r="D19" t="s">
         <v>102</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="3"/>
+      <c r="H19" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="7"/>
       <c r="K19" s="3"/>
       <c r="M19" s="3"/>
       <c r="O19" s="8"/>
@@ -1745,429 +1754,313 @@
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
     </row>
-    <row r="20" spans="1:40" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" t="s">
-        <v>105</v>
-      </c>
+    <row r="20" spans="1:40" ht="17" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
         <v>1</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="H20" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="K20" s="3"/>
       <c r="M20"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
     </row>
-    <row r="21" spans="1:40" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" t="s">
-        <v>105</v>
-      </c>
+    <row r="21" spans="1:40" ht="17" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>102</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="K21" s="3"/>
       <c r="M21"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
     </row>
-    <row r="22" spans="1:40" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" t="s">
-        <v>105</v>
-      </c>
+    <row r="22" spans="1:40" ht="17" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="H22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="K22" s="3"/>
       <c r="M22"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
     </row>
-    <row r="23" spans="1:40" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" t="s">
-        <v>105</v>
-      </c>
+    <row r="23" spans="1:40" ht="17" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
         <v>1</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="H23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="K23" s="3"/>
       <c r="M23"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
     </row>
-    <row r="24" spans="1:40" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" t="s">
-        <v>105</v>
-      </c>
+    <row r="24" spans="1:40" ht="17" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G24" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="K24" s="3"/>
       <c r="M24"/>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
     </row>
-    <row r="25" spans="1:40" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" t="s">
-        <v>105</v>
-      </c>
+    <row r="25" spans="1:40" ht="17" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="K25" s="3"/>
       <c r="M25"/>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
     </row>
-    <row r="26" spans="1:40" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" t="s">
-        <v>105</v>
-      </c>
+    <row r="26" spans="1:40" ht="17" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>26</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>13</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="K26" s="3"/>
       <c r="M26"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
     </row>
-    <row r="27" spans="1:40" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" t="s">
-        <v>103</v>
-      </c>
+    <row r="27" spans="1:40" ht="17" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>13</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="K27" s="3"/>
       <c r="M27"/>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
     </row>
-    <row r="28" spans="1:40" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" t="s">
-        <v>103</v>
-      </c>
+    <row r="28" spans="1:40" ht="17" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>13</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="K28" s="3"/>
       <c r="M28"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
     </row>
-    <row r="29" spans="1:40" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" t="s">
-        <v>103</v>
-      </c>
+    <row r="29" spans="1:40" ht="17" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>48</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>13</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H29" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="K29" s="3"/>
       <c r="M29"/>
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
       <c r="AN29" s="1"/>
     </row>
-    <row r="30" spans="1:40" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" t="s">
+    <row r="30" spans="1:40" ht="17" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" t="s">
         <v>105</v>
       </c>
-      <c r="D30" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" t="s">
-        <v>49</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="I30" s="7"/>
+      <c r="K30" s="3"/>
       <c r="M30"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
     </row>
     <row r="31" spans="1:40" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" t="s">
-        <v>105</v>
-      </c>
-      <c r="D31" t="s">
-        <v>103</v>
-      </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>50</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>13</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="7"/>
       <c r="M31"/>
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
     </row>
     <row r="32" spans="1:40" ht="13" x14ac:dyDescent="0.15">
-      <c r="C32" t="s">
-        <v>105</v>
-      </c>
-      <c r="D32" t="s">
-        <v>103</v>
-      </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>51</v>
-      </c>
-      <c r="L32" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="H32" t="s">
+        <v>0</v>
+      </c>
       <c r="M32"/>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
     </row>
-    <row r="33" spans="3:44" ht="13" x14ac:dyDescent="0.15">
-      <c r="C33" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" t="s">
-        <v>103</v>
-      </c>
+    <row r="33" spans="5:44" ht="13" x14ac:dyDescent="0.15">
       <c r="E33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s">
         <v>4</v>
+      </c>
+      <c r="H33" t="s">
+        <v>2</v>
       </c>
       <c r="M33"/>
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
     </row>
-    <row r="34" spans="3:44" ht="13" x14ac:dyDescent="0.15">
-      <c r="C34" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" t="s">
-        <v>103</v>
-      </c>
+    <row r="34" spans="5:44" ht="13" x14ac:dyDescent="0.15">
       <c r="E34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="H34" t="s">
+        <v>16</v>
       </c>
       <c r="M34"/>
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
       <c r="AR34" s="2"/>
     </row>
-    <row r="35" spans="3:44" ht="13" x14ac:dyDescent="0.15">
-      <c r="C35" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" t="s">
-        <v>103</v>
-      </c>
+    <row r="35" spans="5:44" ht="13" x14ac:dyDescent="0.15">
       <c r="E35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s">
         <v>1</v>
@@ -2177,18 +2070,12 @@
       <c r="P35" s="8"/>
       <c r="AR35" s="2"/>
     </row>
-    <row r="36" spans="3:44" ht="13" x14ac:dyDescent="0.15">
-      <c r="C36" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" t="s">
-        <v>103</v>
-      </c>
+    <row r="36" spans="5:44" ht="13" x14ac:dyDescent="0.15">
       <c r="E36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
         <v>3</v>
@@ -2198,18 +2085,12 @@
       <c r="P36" s="8"/>
       <c r="AR36" s="2"/>
     </row>
-    <row r="37" spans="3:44" ht="17" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" t="s">
-        <v>103</v>
-      </c>
+    <row r="37" spans="5:44" ht="17" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>1</v>
@@ -2219,18 +2100,12 @@
       <c r="P37" s="8"/>
       <c r="AR37" s="2"/>
     </row>
-    <row r="38" spans="3:44" ht="13" x14ac:dyDescent="0.15">
-      <c r="C38" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" t="s">
-        <v>103</v>
-      </c>
+    <row r="38" spans="5:44" ht="13" x14ac:dyDescent="0.15">
       <c r="E38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
         <v>1</v>
@@ -2240,12 +2115,12 @@
       <c r="P38" s="8"/>
       <c r="AR38" s="2"/>
     </row>
-    <row r="39" spans="3:44" ht="13" x14ac:dyDescent="0.15">
+    <row r="39" spans="5:44" ht="13" x14ac:dyDescent="0.15">
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s">
         <v>4</v>
@@ -2255,12 +2130,12 @@
       <c r="P39" s="8"/>
       <c r="AR39" s="2"/>
     </row>
-    <row r="40" spans="3:44" ht="13" x14ac:dyDescent="0.15">
+    <row r="40" spans="5:44" ht="13" x14ac:dyDescent="0.15">
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s">
         <v>3</v>
@@ -2270,12 +2145,12 @@
       <c r="P40" s="8"/>
       <c r="AR40" s="2"/>
     </row>
-    <row r="41" spans="3:44" ht="13" x14ac:dyDescent="0.15">
+    <row r="41" spans="5:44" ht="13" x14ac:dyDescent="0.15">
       <c r="E41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s">
         <v>1</v>
@@ -2285,12 +2160,12 @@
       <c r="P41" s="8"/>
       <c r="AR41" s="2"/>
     </row>
-    <row r="42" spans="3:44" ht="13" x14ac:dyDescent="0.15">
+    <row r="42" spans="5:44" ht="13" x14ac:dyDescent="0.15">
       <c r="E42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
         <v>14</v>
@@ -2299,12 +2174,12 @@
       <c r="O42" s="8"/>
       <c r="P42" s="8"/>
     </row>
-    <row r="43" spans="3:44" ht="13" x14ac:dyDescent="0.15">
+    <row r="43" spans="5:44" ht="13" x14ac:dyDescent="0.15">
       <c r="E43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G43" t="s">
         <v>1</v>
@@ -2313,12 +2188,12 @@
       <c r="O43" s="8"/>
       <c r="P43" s="8"/>
     </row>
-    <row r="44" spans="3:44" ht="13" x14ac:dyDescent="0.15">
+    <row r="44" spans="5:44" ht="13" x14ac:dyDescent="0.15">
       <c r="E44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G44" t="s">
         <v>4</v>
@@ -2327,12 +2202,12 @@
       <c r="O44" s="8"/>
       <c r="P44" s="8"/>
     </row>
-    <row r="45" spans="3:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="5:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G45" t="s">
         <v>3</v>
@@ -2341,12 +2216,12 @@
       <c r="O45" s="8"/>
       <c r="P45" s="8"/>
     </row>
-    <row r="46" spans="3:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="5:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G46" t="s">
         <v>1</v>
@@ -2355,12 +2230,12 @@
       <c r="O46" s="8"/>
       <c r="P46" s="8"/>
     </row>
-    <row r="47" spans="3:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="5:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G47" t="s">
         <v>14</v>
@@ -2369,12 +2244,12 @@
       <c r="O47" s="8"/>
       <c r="P47" s="8"/>
     </row>
-    <row r="48" spans="3:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="5:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G48" t="s">
         <v>15</v>
@@ -2385,10 +2260,10 @@
     </row>
     <row r="49" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M49"/>
       <c r="O49" s="8"/>
@@ -2396,10 +2271,10 @@
     </row>
     <row r="50" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M50"/>
       <c r="O50" s="8"/>
@@ -2407,10 +2282,10 @@
     </row>
     <row r="51" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M51"/>
       <c r="O51" s="8"/>
@@ -2418,7 +2293,7 @@
     </row>
     <row r="52" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M52"/>
       <c r="O52" s="8"/>
@@ -2426,7 +2301,7 @@
     </row>
     <row r="53" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M53"/>
       <c r="O53" s="8"/>
@@ -2434,7 +2309,7 @@
     </row>
     <row r="54" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M54"/>
       <c r="O54" s="8"/>
@@ -2442,7 +2317,7 @@
     </row>
     <row r="55" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M55"/>
       <c r="O55" s="8"/>
@@ -2458,7 +2333,7 @@
     </row>
     <row r="57" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M57"/>
       <c r="O57" s="8"/>

--- a/rasa/data/AIYAIntentTemplate.xlsx
+++ b/rasa/data/AIYAIntentTemplate.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="111">
   <si>
     <t>ขอบคุณ</t>
   </si>
@@ -354,6 +354,12 @@
   </si>
   <si>
     <t>หน้าที่ของบอท</t>
+  </si>
+  <si>
+    <t>get started</t>
+  </si>
+  <si>
+    <t>Get Started</t>
   </si>
 </sst>
 </file>
@@ -881,7 +887,7 @@
   <dimension ref="A1:AZ1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2348,31 +2354,49 @@
       <c r="P58" s="8"/>
     </row>
     <row r="59" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G59" t="s">
+        <v>109</v>
+      </c>
       <c r="M59"/>
       <c r="O59" s="8"/>
       <c r="P59" s="8"/>
     </row>
     <row r="60" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G60" t="s">
+        <v>109</v>
+      </c>
       <c r="M60"/>
       <c r="O60" s="8"/>
       <c r="P60" s="8"/>
     </row>
     <row r="61" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G61" t="s">
+        <v>110</v>
+      </c>
       <c r="M61"/>
       <c r="O61" s="8"/>
       <c r="P61" s="8"/>
     </row>
     <row r="62" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G62" t="s">
+        <v>109</v>
+      </c>
       <c r="M62"/>
       <c r="O62" s="8"/>
       <c r="P62" s="8"/>
     </row>
     <row r="63" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G63" t="s">
+        <v>109</v>
+      </c>
       <c r="M63"/>
       <c r="O63" s="8"/>
       <c r="P63" s="8"/>
     </row>
     <row r="64" spans="6:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G64" t="s">
+        <v>110</v>
+      </c>
       <c r="M64"/>
       <c r="O64" s="8"/>
       <c r="P64" s="8"/>

--- a/rasa/data/AIYAIntentTemplate.xlsx
+++ b/rasa/data/AIYAIntentTemplate.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="120">
   <si>
     <t>ขอบคุณ</t>
   </si>
@@ -360,6 +360,33 @@
   </si>
   <si>
     <t>Get Started</t>
+  </si>
+  <si>
+    <t>user.แหล่งข้อมูลสมุนไพร</t>
+  </si>
+  <si>
+    <t>แหล่งข้อมูลสมุนไพร</t>
+  </si>
+  <si>
+    <t>แหล่งอ้างอิงข้อมูลสมุนไพร</t>
+  </si>
+  <si>
+    <t>user.แหล่งข้อมูลสมุนไพร.thai_sci</t>
+  </si>
+  <si>
+    <t>user.แหล่งข้อมูลสมุนไพร.thai_med</t>
+  </si>
+  <si>
+    <t>user.แหล่งข้อมูลสมุนไพร.mix</t>
+  </si>
+  <si>
+    <t>แหล่งข้อมูลทางวิทยาศาสตร์ของสมุนไพร</t>
+  </si>
+  <si>
+    <t>แหล่งข้อมูลสมุนไพรและการแพทย์แผนไทย</t>
+  </si>
+  <si>
+    <t>แหล่งข้อมูลบทความข่าวสารสมุนไพร</t>
   </si>
 </sst>
 </file>
@@ -449,8 +476,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -538,7 +571,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="77">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -574,6 +607,9 @@
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -609,6 +645,9 @@
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -886,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -901,10 +940,10 @@
     <col min="14" max="14" width="45.83203125" customWidth="1"/>
     <col min="15" max="15" width="34.83203125" customWidth="1"/>
     <col min="16" max="16" width="29.5" customWidth="1"/>
-    <col min="17" max="17" width="35" customWidth="1"/>
-    <col min="18" max="18" width="45.1640625" customWidth="1"/>
-    <col min="19" max="19" width="65.6640625" customWidth="1"/>
-    <col min="20" max="20" width="74.83203125" customWidth="1"/>
+    <col min="17" max="17" width="24.6640625" customWidth="1"/>
+    <col min="18" max="18" width="33.1640625" customWidth="1"/>
+    <col min="19" max="19" width="34.83203125" customWidth="1"/>
+    <col min="20" max="20" width="27.33203125" customWidth="1"/>
     <col min="21" max="21" width="51.5" customWidth="1"/>
     <col min="22" max="22" width="27.6640625" customWidth="1"/>
     <col min="23" max="23" width="25.83203125" customWidth="1"/>
@@ -980,6 +1019,18 @@
       <c r="P1" s="9" t="s">
         <v>87</v>
       </c>
+      <c r="Q1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="2" spans="1:52" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -1030,6 +1081,18 @@
       <c r="P2" t="s">
         <v>92</v>
       </c>
+      <c r="Q2" t="s">
+        <v>112</v>
+      </c>
+      <c r="R2" t="s">
+        <v>117</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="T2" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="3" spans="1:52" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1080,6 +1143,18 @@
       <c r="P3" t="s">
         <v>93</v>
       </c>
+      <c r="Q3" t="s">
+        <v>113</v>
+      </c>
+      <c r="R3" t="s">
+        <v>117</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="T3" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="4" spans="1:52" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1130,6 +1205,18 @@
       <c r="P4" t="s">
         <v>94</v>
       </c>
+      <c r="Q4" t="s">
+        <v>112</v>
+      </c>
+      <c r="R4" t="s">
+        <v>117</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="T4" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="5" spans="1:52" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1180,6 +1267,18 @@
       <c r="P5" t="s">
         <v>92</v>
       </c>
+      <c r="Q5" t="s">
+        <v>113</v>
+      </c>
+      <c r="R5" t="s">
+        <v>117</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="T5" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="6" spans="1:52" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1230,6 +1329,18 @@
       <c r="P6" t="s">
         <v>93</v>
       </c>
+      <c r="Q6" t="s">
+        <v>112</v>
+      </c>
+      <c r="R6" t="s">
+        <v>117</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="T6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="7" spans="1:52" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1279,6 +1390,18 @@
       </c>
       <c r="P7" t="s">
         <v>94</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>113</v>
+      </c>
+      <c r="R7" t="s">
+        <v>117</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="T7" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:52" ht="17" x14ac:dyDescent="0.2">
